--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C7F24-3563-4CAF-9324-95F15CAC2BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41ACD3-197C-47F9-816C-6B5DCBA236D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B112" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B118" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -3141,6 +3141,150 @@
       </c>
       <c r="G112">
         <v>2850000000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>24200</v>
+      </c>
+      <c r="F113">
+        <v>11</v>
+      </c>
+      <c r="G113">
+        <v>2880000000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>24400</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114">
+        <v>2910000000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>24600</v>
+      </c>
+      <c r="F115">
+        <v>11</v>
+      </c>
+      <c r="G115">
+        <v>2940000000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>24800</v>
+      </c>
+      <c r="F116">
+        <v>11</v>
+      </c>
+      <c r="G116">
+        <v>2970000000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>25000</v>
+      </c>
+      <c r="F117">
+        <v>11</v>
+      </c>
+      <c r="G117">
+        <v>3000000000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>25200</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+      <c r="G118">
+        <v>3030000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41ACD3-197C-47F9-816C-6B5DCBA236D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB1B5D-B018-4C44-962D-910161F27DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B118" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B125" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -3285,6 +3285,174 @@
       </c>
       <c r="G118">
         <v>3030000000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>25400</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+      <c r="G119">
+        <v>3060000000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>25600</v>
+      </c>
+      <c r="F120">
+        <v>11</v>
+      </c>
+      <c r="G120">
+        <v>3090000000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>25800</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+      <c r="G121">
+        <v>3120000000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>26000</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+      <c r="G122">
+        <v>3150000000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>26200</v>
+      </c>
+      <c r="F123">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>3180000000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>26400</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>3210000000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>26600</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+      <c r="G125">
+        <v>3240000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB1B5D-B018-4C44-962D-910161F27DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C9993-C2E4-4FF2-B388-E146EC1E486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B125" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B130" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -3453,6 +3453,126 @@
       </c>
       <c r="G125">
         <v>3240000000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>26800</v>
+      </c>
+      <c r="F126">
+        <v>11</v>
+      </c>
+      <c r="G126">
+        <v>3270000000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>27000</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+      <c r="G127">
+        <v>3300000000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>27200</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+      <c r="G128">
+        <v>3330000000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>27400</v>
+      </c>
+      <c r="F129">
+        <v>11</v>
+      </c>
+      <c r="G129">
+        <v>3360000000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>27600</v>
+      </c>
+      <c r="F130">
+        <v>11</v>
+      </c>
+      <c r="G130">
+        <v>3390000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755C9993-C2E4-4FF2-B388-E146EC1E486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6E342F-F989-41A9-B500-8FA9679F8F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B130" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B135" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -3573,6 +3573,150 @@
       </c>
       <c r="G130">
         <v>3390000000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>27800</v>
+      </c>
+      <c r="F131">
+        <v>11</v>
+      </c>
+      <c r="G131">
+        <v>3420000000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>28000</v>
+      </c>
+      <c r="F132">
+        <v>11</v>
+      </c>
+      <c r="G132">
+        <v>3450000000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>28200</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
+      <c r="G133">
+        <v>3480000000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134" si="2">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>28400</v>
+      </c>
+      <c r="F134">
+        <v>11</v>
+      </c>
+      <c r="G134">
+        <v>3510000000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>28600</v>
+      </c>
+      <c r="F135">
+        <v>11</v>
+      </c>
+      <c r="G135">
+        <v>3540000000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ref="B136" si="3">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>28800</v>
+      </c>
+      <c r="F136">
+        <v>11</v>
+      </c>
+      <c r="G136">
+        <v>3570000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6E342F-F989-41A9-B500-8FA9679F8F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D6BD6-4639-42B3-8B45-E8E503086D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2116,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:B135" si="1">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B70:B137" si="1">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C70">
@@ -3717,6 +3717,150 @@
       </c>
       <c r="G136">
         <v>3570000000000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="1"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>29000</v>
+      </c>
+      <c r="F137">
+        <v>11</v>
+      </c>
+      <c r="G137">
+        <v>3600000000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ref="B138:B142" si="4">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>29200</v>
+      </c>
+      <c r="F138">
+        <v>11</v>
+      </c>
+      <c r="G138">
+        <v>3630000000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>29400</v>
+      </c>
+      <c r="F139">
+        <v>11</v>
+      </c>
+      <c r="G139">
+        <v>3660000000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>29600</v>
+      </c>
+      <c r="F140">
+        <v>11</v>
+      </c>
+      <c r="G140">
+        <v>3690000000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>29800</v>
+      </c>
+      <c r="F141">
+        <v>11</v>
+      </c>
+      <c r="G141">
+        <v>3720000000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>30000</v>
+      </c>
+      <c r="F142">
+        <v>11</v>
+      </c>
+      <c r="G142">
+        <v>3750000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D6BD6-4639-42B3-8B45-E8E503086D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA6A926-30B4-4B94-9EDD-FFAE6F0DD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B142" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B148" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -3861,6 +3861,150 @@
       </c>
       <c r="G142">
         <v>3750000000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>30200</v>
+      </c>
+      <c r="F143">
+        <v>11</v>
+      </c>
+      <c r="G143">
+        <v>3780000000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>30400</v>
+      </c>
+      <c r="F144">
+        <v>11</v>
+      </c>
+      <c r="G144">
+        <v>3810000000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>30600</v>
+      </c>
+      <c r="F145">
+        <v>11</v>
+      </c>
+      <c r="G145">
+        <v>3840000000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>30800</v>
+      </c>
+      <c r="F146">
+        <v>11</v>
+      </c>
+      <c r="G146">
+        <v>3870000000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>31000</v>
+      </c>
+      <c r="F147">
+        <v>11</v>
+      </c>
+      <c r="G147">
+        <v>3900000000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>31200</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
+      </c>
+      <c r="G148">
+        <v>3930000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA6A926-30B4-4B94-9EDD-FFAE6F0DD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7BDFD-EEC5-474A-A532-DF414160C2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B148" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B154" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -4005,6 +4005,150 @@
       </c>
       <c r="G148">
         <v>3930000000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>31400</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+      <c r="G149">
+        <v>3960000000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>31600</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+      <c r="G150">
+        <v>3990000000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>31800</v>
+      </c>
+      <c r="F151">
+        <v>11</v>
+      </c>
+      <c r="G151">
+        <v>4020000000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>32000</v>
+      </c>
+      <c r="F152">
+        <v>11</v>
+      </c>
+      <c r="G152">
+        <v>4050000000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>32200</v>
+      </c>
+      <c r="F153">
+        <v>11</v>
+      </c>
+      <c r="G153">
+        <v>4080000000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>32400</v>
+      </c>
+      <c r="F154">
+        <v>11</v>
+      </c>
+      <c r="G154">
+        <v>4110000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7BDFD-EEC5-474A-A532-DF414160C2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66D306C-87E0-410D-B798-4821D0A90560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A150" sqref="A150"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B154" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B160" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -4149,6 +4149,150 @@
       </c>
       <c r="G154">
         <v>4110000000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>32600</v>
+      </c>
+      <c r="F155">
+        <v>11</v>
+      </c>
+      <c r="G155">
+        <v>4140000000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>32800</v>
+      </c>
+      <c r="F156">
+        <v>11</v>
+      </c>
+      <c r="G156">
+        <v>4170000000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>33000</v>
+      </c>
+      <c r="F157">
+        <v>11</v>
+      </c>
+      <c r="G157">
+        <v>4200000000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>33200</v>
+      </c>
+      <c r="F158">
+        <v>11</v>
+      </c>
+      <c r="G158">
+        <v>4230000000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>33400</v>
+      </c>
+      <c r="F159">
+        <v>11</v>
+      </c>
+      <c r="G159">
+        <v>4260000000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>33600</v>
+      </c>
+      <c r="F160">
+        <v>11</v>
+      </c>
+      <c r="G160">
+        <v>4290000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66D306C-87E0-410D-B798-4821D0A90560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4ED740-FD64-4544-B7AC-CA85B6644F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B156" sqref="B156"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157:G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B160" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B168" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -4293,6 +4293,198 @@
       </c>
       <c r="G160">
         <v>4290000000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>33800</v>
+      </c>
+      <c r="F161">
+        <v>11</v>
+      </c>
+      <c r="G161">
+        <v>4320000000000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>34000</v>
+      </c>
+      <c r="F162">
+        <v>11</v>
+      </c>
+      <c r="G162">
+        <v>4350000000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>34200</v>
+      </c>
+      <c r="F163">
+        <v>11</v>
+      </c>
+      <c r="G163">
+        <v>4380000000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>34400</v>
+      </c>
+      <c r="F164">
+        <v>11</v>
+      </c>
+      <c r="G164">
+        <v>4410000000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>34600</v>
+      </c>
+      <c r="F165">
+        <v>11</v>
+      </c>
+      <c r="G165">
+        <v>4440000000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>34800</v>
+      </c>
+      <c r="F166">
+        <v>11</v>
+      </c>
+      <c r="G166">
+        <v>4470000000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>35000</v>
+      </c>
+      <c r="F167">
+        <v>11</v>
+      </c>
+      <c r="G167">
+        <v>4500000000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>35200</v>
+      </c>
+      <c r="F168">
+        <v>11</v>
+      </c>
+      <c r="G168">
+        <v>4530000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4ED740-FD64-4544-B7AC-CA85B6644F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10512250-6C77-4EF7-856E-9A318240F17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157:G168"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B168" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B173" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -4485,6 +4485,126 @@
       </c>
       <c r="G168">
         <v>4530000000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>35400</v>
+      </c>
+      <c r="F169">
+        <v>11</v>
+      </c>
+      <c r="G169">
+        <v>4560000000000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>35600</v>
+      </c>
+      <c r="F170">
+        <v>11</v>
+      </c>
+      <c r="G170">
+        <v>4590000000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>35800</v>
+      </c>
+      <c r="F171">
+        <v>11</v>
+      </c>
+      <c r="G171">
+        <v>4620000000000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>36000</v>
+      </c>
+      <c r="F172">
+        <v>11</v>
+      </c>
+      <c r="G172">
+        <v>4650000000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>36200</v>
+      </c>
+      <c r="F173">
+        <v>11</v>
+      </c>
+      <c r="G173">
+        <v>4680000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10512250-6C77-4EF7-856E-9A318240F17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B7CBBE-AA65-4E39-B3A7-21F31091678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B173" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B179" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -4605,6 +4605,150 @@
       </c>
       <c r="G173">
         <v>4680000000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>36400</v>
+      </c>
+      <c r="F174">
+        <v>11</v>
+      </c>
+      <c r="G174">
+        <v>4710000000000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>36600</v>
+      </c>
+      <c r="F175">
+        <v>11</v>
+      </c>
+      <c r="G175">
+        <v>4740000000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>36800</v>
+      </c>
+      <c r="F176">
+        <v>11</v>
+      </c>
+      <c r="G176">
+        <v>4770000000000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>37000</v>
+      </c>
+      <c r="F177">
+        <v>11</v>
+      </c>
+      <c r="G177">
+        <v>4800000000000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>37200</v>
+      </c>
+      <c r="F178">
+        <v>11</v>
+      </c>
+      <c r="G178">
+        <v>4830000000000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>37400</v>
+      </c>
+      <c r="F179">
+        <v>11</v>
+      </c>
+      <c r="G179">
+        <v>4860000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B7CBBE-AA65-4E39-B3A7-21F31091678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B358D82-B5DC-459D-ADD9-E28698E7C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B179" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B191" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -4749,6 +4749,294 @@
       </c>
       <c r="G179">
         <v>4860000000000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>37600</v>
+      </c>
+      <c r="F180">
+        <v>11</v>
+      </c>
+      <c r="G180">
+        <v>4890000000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>37800</v>
+      </c>
+      <c r="F181">
+        <v>11</v>
+      </c>
+      <c r="G181">
+        <v>4920000000000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>38000</v>
+      </c>
+      <c r="F182">
+        <v>11</v>
+      </c>
+      <c r="G182">
+        <v>4950000000000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>38200</v>
+      </c>
+      <c r="F183">
+        <v>11</v>
+      </c>
+      <c r="G183">
+        <v>4980000000000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>38400</v>
+      </c>
+      <c r="F184">
+        <v>11</v>
+      </c>
+      <c r="G184">
+        <v>5010000000000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>38600</v>
+      </c>
+      <c r="F185">
+        <v>11</v>
+      </c>
+      <c r="G185">
+        <v>5040000000000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>38800</v>
+      </c>
+      <c r="F186">
+        <v>11</v>
+      </c>
+      <c r="G186">
+        <v>5070000000000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>39000</v>
+      </c>
+      <c r="F187">
+        <v>11</v>
+      </c>
+      <c r="G187">
+        <v>5100000000000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>39200</v>
+      </c>
+      <c r="F188">
+        <v>11</v>
+      </c>
+      <c r="G188">
+        <v>5130000000000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>39400</v>
+      </c>
+      <c r="F189">
+        <v>11</v>
+      </c>
+      <c r="G189">
+        <v>5160000000000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>39600</v>
+      </c>
+      <c r="F190">
+        <v>11</v>
+      </c>
+      <c r="G190">
+        <v>5190000000000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>39800</v>
+      </c>
+      <c r="F191">
+        <v>11</v>
+      </c>
+      <c r="G191">
+        <v>5220000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B358D82-B5DC-459D-ADD9-E28698E7C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F3B8E-4F02-493A-8272-DC17B4D0B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B191" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B203" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -5037,6 +5037,294 @@
       </c>
       <c r="G191">
         <v>5220000000000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>40000</v>
+      </c>
+      <c r="F192">
+        <v>11</v>
+      </c>
+      <c r="G192">
+        <v>5250000000000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>40200</v>
+      </c>
+      <c r="F193">
+        <v>11</v>
+      </c>
+      <c r="G193">
+        <v>5280000000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>40400</v>
+      </c>
+      <c r="F194">
+        <v>11</v>
+      </c>
+      <c r="G194">
+        <v>5310000000000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>40600</v>
+      </c>
+      <c r="F195">
+        <v>11</v>
+      </c>
+      <c r="G195">
+        <v>5340000000000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>40800</v>
+      </c>
+      <c r="F196">
+        <v>11</v>
+      </c>
+      <c r="G196">
+        <v>5370000000000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <v>41000</v>
+      </c>
+      <c r="F197">
+        <v>11</v>
+      </c>
+      <c r="G197">
+        <v>5400000000000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>41200</v>
+      </c>
+      <c r="F198">
+        <v>11</v>
+      </c>
+      <c r="G198">
+        <v>5430000000000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>41400</v>
+      </c>
+      <c r="F199">
+        <v>11</v>
+      </c>
+      <c r="G199">
+        <v>5460000000000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>41600</v>
+      </c>
+      <c r="F200">
+        <v>11</v>
+      </c>
+      <c r="G200">
+        <v>5490000000000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>41800</v>
+      </c>
+      <c r="F201">
+        <v>11</v>
+      </c>
+      <c r="G201">
+        <v>5520000000000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <f t="shared" ref="B202" si="5">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>42000</v>
+      </c>
+      <c r="F202">
+        <v>11</v>
+      </c>
+      <c r="G202">
+        <v>5550000000000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>42200</v>
+      </c>
+      <c r="F203">
+        <v>11</v>
+      </c>
+      <c r="G203">
+        <v>5580000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F3B8E-4F02-493A-8272-DC17B4D0B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E885036-6F3A-47EC-8126-9A0770D62E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3748,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B203" si="4">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B138:B204" si="4">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C138">
@@ -5325,6 +5325,150 @@
       </c>
       <c r="G203">
         <v>5580000000000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="4"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>42400</v>
+      </c>
+      <c r="F204">
+        <v>11</v>
+      </c>
+      <c r="G204">
+        <v>5610000000000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <f t="shared" ref="B205:B209" si="6">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>42600</v>
+      </c>
+      <c r="F205">
+        <v>11</v>
+      </c>
+      <c r="G205">
+        <v>5640000000000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>42800</v>
+      </c>
+      <c r="F206">
+        <v>11</v>
+      </c>
+      <c r="G206">
+        <v>5670000000000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>43000</v>
+      </c>
+      <c r="F207">
+        <v>11</v>
+      </c>
+      <c r="G207">
+        <v>5700000000000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>43200</v>
+      </c>
+      <c r="F208">
+        <v>11</v>
+      </c>
+      <c r="G208">
+        <v>5730000000000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>43400</v>
+      </c>
+      <c r="F209">
+        <v>11</v>
+      </c>
+      <c r="G209">
+        <v>5760000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E885036-6F3A-47EC-8126-9A0770D62E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468ED035-6C5D-4B4B-9A83-C98462B5BA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B209" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B216" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -5469,6 +5469,174 @@
       </c>
       <c r="G209">
         <v>5760000000000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>43600</v>
+      </c>
+      <c r="F210">
+        <v>11</v>
+      </c>
+      <c r="G210">
+        <v>5790000000000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>43800</v>
+      </c>
+      <c r="F211">
+        <v>11</v>
+      </c>
+      <c r="G211">
+        <v>5820000000000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>44000</v>
+      </c>
+      <c r="F212">
+        <v>11</v>
+      </c>
+      <c r="G212">
+        <v>5850000000000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>44200</v>
+      </c>
+      <c r="F213">
+        <v>11</v>
+      </c>
+      <c r="G213">
+        <v>5880000000000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>44400</v>
+      </c>
+      <c r="F214">
+        <v>11</v>
+      </c>
+      <c r="G214">
+        <v>5910000000000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>44600</v>
+      </c>
+      <c r="F215">
+        <v>11</v>
+      </c>
+      <c r="G215">
+        <v>5940000000000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>44800</v>
+      </c>
+      <c r="F216">
+        <v>11</v>
+      </c>
+      <c r="G216">
+        <v>5970000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468ED035-6C5D-4B4B-9A83-C98462B5BA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E476F42-12EA-452D-B9F6-C5CAFCB9B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B209" sqref="B209"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B216" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B228" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -5637,6 +5637,294 @@
       </c>
       <c r="G216">
         <v>5970000000000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>45000</v>
+      </c>
+      <c r="F217">
+        <v>11</v>
+      </c>
+      <c r="G217">
+        <v>6000000000000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>45200</v>
+      </c>
+      <c r="F218">
+        <v>11</v>
+      </c>
+      <c r="G218">
+        <v>6030000000000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>45400</v>
+      </c>
+      <c r="F219">
+        <v>11</v>
+      </c>
+      <c r="G219">
+        <v>6060000000000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>45600</v>
+      </c>
+      <c r="F220">
+        <v>11</v>
+      </c>
+      <c r="G220">
+        <v>6090000000000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>45800</v>
+      </c>
+      <c r="F221">
+        <v>11</v>
+      </c>
+      <c r="G221">
+        <v>6120000000000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>46000</v>
+      </c>
+      <c r="F222">
+        <v>11</v>
+      </c>
+      <c r="G222">
+        <v>6150000000000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <v>46200</v>
+      </c>
+      <c r="F223">
+        <v>11</v>
+      </c>
+      <c r="G223">
+        <v>6180000000000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>46400</v>
+      </c>
+      <c r="F224">
+        <v>11</v>
+      </c>
+      <c r="G224">
+        <v>6210000000000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>46600</v>
+      </c>
+      <c r="F225">
+        <v>11</v>
+      </c>
+      <c r="G225">
+        <v>6240000000000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>46800</v>
+      </c>
+      <c r="F226">
+        <v>11</v>
+      </c>
+      <c r="G226">
+        <v>6270000000000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>47000</v>
+      </c>
+      <c r="F227">
+        <v>11</v>
+      </c>
+      <c r="G227">
+        <v>6300000000000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>47200</v>
+      </c>
+      <c r="F228">
+        <v>11</v>
+      </c>
+      <c r="G228">
+        <v>6330000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E476F42-12EA-452D-B9F6-C5CAFCB9B4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE974A99-3528-49DB-B951-B003CF1AB926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
+      <selection pane="bottomLeft" activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B228" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B234" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -5925,6 +5925,150 @@
       </c>
       <c r="G228">
         <v>6330000000000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>47400</v>
+      </c>
+      <c r="F229">
+        <v>11</v>
+      </c>
+      <c r="G229">
+        <v>6360000000000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>2</v>
+      </c>
+      <c r="E230">
+        <v>47600</v>
+      </c>
+      <c r="F230">
+        <v>11</v>
+      </c>
+      <c r="G230">
+        <v>6390000000000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231">
+        <v>47800</v>
+      </c>
+      <c r="F231">
+        <v>11</v>
+      </c>
+      <c r="G231">
+        <v>6420000000000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>48000</v>
+      </c>
+      <c r="F232">
+        <v>11</v>
+      </c>
+      <c r="G232">
+        <v>6450000000000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233">
+        <v>48200</v>
+      </c>
+      <c r="F233">
+        <v>11</v>
+      </c>
+      <c r="G233">
+        <v>6480000000000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>48400</v>
+      </c>
+      <c r="F234">
+        <v>11</v>
+      </c>
+      <c r="G234">
+        <v>6510000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE974A99-3528-49DB-B951-B003CF1AB926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D538E5-BA4F-4EDA-9EF1-C3AB8BD5E2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B228" sqref="B228"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B234" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B240" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -6069,6 +6069,150 @@
       </c>
       <c r="G234">
         <v>6510000000000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>48600</v>
+      </c>
+      <c r="F235">
+        <v>11</v>
+      </c>
+      <c r="G235">
+        <v>6540000000000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>48800</v>
+      </c>
+      <c r="F236">
+        <v>11</v>
+      </c>
+      <c r="G236">
+        <v>6570000000000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>49000</v>
+      </c>
+      <c r="F237">
+        <v>11</v>
+      </c>
+      <c r="G237">
+        <v>6600000000000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>49200</v>
+      </c>
+      <c r="F238">
+        <v>11</v>
+      </c>
+      <c r="G238">
+        <v>6630000000000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>49400</v>
+      </c>
+      <c r="F239">
+        <v>11</v>
+      </c>
+      <c r="G239">
+        <v>6660000000000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>49600</v>
+      </c>
+      <c r="F240">
+        <v>11</v>
+      </c>
+      <c r="G240">
+        <v>6690000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D538E5-BA4F-4EDA-9EF1-C3AB8BD5E2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A46CA-10D2-4DAA-B75B-F8C0BA7E1875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -142,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B240" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B246" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -6213,6 +6213,150 @@
       </c>
       <c r="G240">
         <v>6690000000000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>49800</v>
+      </c>
+      <c r="F241">
+        <v>11</v>
+      </c>
+      <c r="G241">
+        <v>6720000000000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>50000</v>
+      </c>
+      <c r="F242">
+        <v>11</v>
+      </c>
+      <c r="G242">
+        <v>6750000000000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>50200</v>
+      </c>
+      <c r="F243">
+        <v>11</v>
+      </c>
+      <c r="G243">
+        <v>6780000000000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>50400</v>
+      </c>
+      <c r="F244">
+        <v>11</v>
+      </c>
+      <c r="G244">
+        <v>6810000000000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245">
+        <v>50600</v>
+      </c>
+      <c r="F245">
+        <v>11</v>
+      </c>
+      <c r="G245">
+        <v>6840000000000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>50800</v>
+      </c>
+      <c r="F246">
+        <v>11</v>
+      </c>
+      <c r="G246">
+        <v>6870000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A46CA-10D2-4DAA-B75B-F8C0BA7E1875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89F4C1-80F5-440C-9FA7-300D4430C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B246" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B258" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -6357,6 +6357,294 @@
       </c>
       <c r="G246">
         <v>6870000000000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>51000</v>
+      </c>
+      <c r="F247">
+        <v>11</v>
+      </c>
+      <c r="G247">
+        <v>6900000000000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>51200</v>
+      </c>
+      <c r="F248">
+        <v>11</v>
+      </c>
+      <c r="G248">
+        <v>6930000000000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>51400</v>
+      </c>
+      <c r="F249">
+        <v>11</v>
+      </c>
+      <c r="G249">
+        <v>6960000000000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>51600</v>
+      </c>
+      <c r="F250">
+        <v>11</v>
+      </c>
+      <c r="G250">
+        <v>6990000000000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>51800</v>
+      </c>
+      <c r="F251">
+        <v>11</v>
+      </c>
+      <c r="G251">
+        <v>7020000000000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>52000</v>
+      </c>
+      <c r="F252">
+        <v>11</v>
+      </c>
+      <c r="G252">
+        <v>7050000000000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>52200</v>
+      </c>
+      <c r="F253">
+        <v>11</v>
+      </c>
+      <c r="G253">
+        <v>7080000000000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>52400</v>
+      </c>
+      <c r="F254">
+        <v>11</v>
+      </c>
+      <c r="G254">
+        <v>7110000000000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255">
+        <v>52600</v>
+      </c>
+      <c r="F255">
+        <v>11</v>
+      </c>
+      <c r="G255">
+        <v>7140000000000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>52800</v>
+      </c>
+      <c r="F256">
+        <v>11</v>
+      </c>
+      <c r="G256">
+        <v>7170000000000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>53000</v>
+      </c>
+      <c r="F257">
+        <v>11</v>
+      </c>
+      <c r="G257">
+        <v>7200000000000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>53200</v>
+      </c>
+      <c r="F258">
+        <v>11</v>
+      </c>
+      <c r="G258">
+        <v>7230000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89F4C1-80F5-440C-9FA7-300D4430C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22066D3F-94F5-41E8-990E-8480F2C4B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
+      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B258" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B265" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -6645,6 +6645,174 @@
       </c>
       <c r="G258">
         <v>7230000000000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>53400</v>
+      </c>
+      <c r="F259">
+        <v>11</v>
+      </c>
+      <c r="G259">
+        <v>7260000000000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>53600</v>
+      </c>
+      <c r="F260">
+        <v>11</v>
+      </c>
+      <c r="G260">
+        <v>7290000000000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261">
+        <v>53800</v>
+      </c>
+      <c r="F261">
+        <v>11</v>
+      </c>
+      <c r="G261">
+        <v>7320000000000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>54000</v>
+      </c>
+      <c r="F262">
+        <v>11</v>
+      </c>
+      <c r="G262">
+        <v>7350000000000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>54200</v>
+      </c>
+      <c r="F263">
+        <v>11</v>
+      </c>
+      <c r="G263">
+        <v>7380000000000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <v>54400</v>
+      </c>
+      <c r="F264">
+        <v>11</v>
+      </c>
+      <c r="G264">
+        <v>7410000000000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>54600</v>
+      </c>
+      <c r="F265">
+        <v>11</v>
+      </c>
+      <c r="G265">
+        <v>7440000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22066D3F-94F5-41E8-990E-8480F2C4B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D503B-9147-4ECD-97FE-B6D70676DA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,7 +5356,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f t="shared" ref="B205:B265" si="6">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B205:B268" si="6">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C205">
@@ -6813,6 +6813,150 @@
       </c>
       <c r="G265">
         <v>7440000000000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>54800</v>
+      </c>
+      <c r="F266">
+        <v>11</v>
+      </c>
+      <c r="G266">
+        <v>7470000000000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>55000</v>
+      </c>
+      <c r="F267">
+        <v>11</v>
+      </c>
+      <c r="G267">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="6"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268">
+        <v>55200</v>
+      </c>
+      <c r="F268">
+        <v>11</v>
+      </c>
+      <c r="G268">
+        <v>7530000000000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <f t="shared" ref="B269:B271" si="7">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269">
+        <v>55400</v>
+      </c>
+      <c r="F269">
+        <v>11</v>
+      </c>
+      <c r="G269">
+        <v>7560000000000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>55600</v>
+      </c>
+      <c r="F270">
+        <v>11</v>
+      </c>
+      <c r="G270">
+        <v>7590000000000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>55800</v>
+      </c>
+      <c r="F271">
+        <v>11</v>
+      </c>
+      <c r="G271">
+        <v>7620000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D503B-9147-4ECD-97FE-B6D70676DA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B6AD1-F693-41DC-BFBB-86752AC4EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H271"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B266" sqref="B266"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6892,7 +6892,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <f t="shared" ref="B269:B271" si="7">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B269:B277" si="7">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C269">
@@ -6957,6 +6957,150 @@
       </c>
       <c r="G271">
         <v>7620000000000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272">
+        <v>56000</v>
+      </c>
+      <c r="F272">
+        <v>11</v>
+      </c>
+      <c r="G272">
+        <v>7650000000000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <v>56200</v>
+      </c>
+      <c r="F273">
+        <v>11</v>
+      </c>
+      <c r="G273">
+        <v>7680000000000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>56400</v>
+      </c>
+      <c r="F274">
+        <v>11</v>
+      </c>
+      <c r="G274">
+        <v>7710000000000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>56600</v>
+      </c>
+      <c r="F275">
+        <v>11</v>
+      </c>
+      <c r="G275">
+        <v>7740000000000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>56800</v>
+      </c>
+      <c r="F276">
+        <v>11</v>
+      </c>
+      <c r="G276">
+        <v>7770000000000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>57000</v>
+      </c>
+      <c r="F277">
+        <v>11</v>
+      </c>
+      <c r="G277">
+        <v>7800000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B6AD1-F693-41DC-BFBB-86752AC4EE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2FF14-819C-4326-9234-5143B3F5183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
+    <sheet name="Balance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,7 +65,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>abilType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% 정도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +111,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -438,22 +465,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:I284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="84.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +506,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -502,8 +533,14 @@
       <c r="G2">
         <v>2000000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>126</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -526,8 +563,14 @@
       <c r="G3">
         <v>3000000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>126</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -550,8 +593,14 @@
       <c r="G4">
         <v>4000000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>126</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -574,8 +623,14 @@
       <c r="G5">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>126</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -598,8 +653,14 @@
       <c r="G6">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>126</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -622,8 +683,14 @@
       <c r="G7">
         <v>20000000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>126</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -646,8 +713,14 @@
       <c r="G8">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>126</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -670,8 +743,14 @@
       <c r="G9">
         <v>40000000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>126</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -694,8 +773,14 @@
       <c r="G10">
         <v>50000000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>126</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -718,8 +803,14 @@
       <c r="G11">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>126</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -742,8 +833,14 @@
       <c r="G12">
         <v>110000000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>126</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -766,8 +863,14 @@
       <c r="G13">
         <v>120000000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>126</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -790,8 +893,14 @@
       <c r="G14">
         <v>130000000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>126</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -814,8 +923,14 @@
       <c r="G15">
         <v>140000000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>126</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -838,8 +953,14 @@
       <c r="G16">
         <v>150000000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>126</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -862,8 +983,14 @@
       <c r="G17">
         <v>160000000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>126</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -886,8 +1013,14 @@
       <c r="G18">
         <v>170000000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>126</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -910,8 +1043,14 @@
       <c r="G19">
         <v>180000000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>126</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -934,8 +1073,14 @@
       <c r="G20">
         <v>190000000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>126</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -958,8 +1103,14 @@
       <c r="G21">
         <v>200000000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>126</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -982,8 +1133,14 @@
       <c r="G22">
         <v>220000000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>126</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1006,8 +1163,14 @@
       <c r="G23">
         <v>240000000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>126</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1030,8 +1193,14 @@
       <c r="G24">
         <v>260000000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>126</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1054,8 +1223,14 @@
       <c r="G25">
         <v>280000000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>126</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1078,8 +1253,14 @@
       <c r="G26">
         <v>300000000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>126</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1102,8 +1283,14 @@
       <c r="G27">
         <v>320000000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>126</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1126,8 +1313,14 @@
       <c r="G28">
         <v>340000000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>126</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1150,8 +1343,14 @@
       <c r="G29">
         <v>360000000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>126</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1174,8 +1373,14 @@
       <c r="G30">
         <v>390000000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>126</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1198,8 +1403,14 @@
       <c r="G31">
         <v>420000000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>126</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1222,8 +1433,14 @@
       <c r="G32">
         <v>450000000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>126</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1246,8 +1463,14 @@
       <c r="G33">
         <v>480000000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>126</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1270,8 +1493,14 @@
       <c r="G34">
         <v>510000000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>126</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1294,8 +1523,14 @@
       <c r="G35">
         <v>540000000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>126</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1318,8 +1553,14 @@
       <c r="G36">
         <v>570000000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>126</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1342,8 +1583,14 @@
       <c r="G37">
         <v>600000000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>126</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1366,8 +1613,14 @@
       <c r="G38">
         <v>630000000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>126</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1390,8 +1643,14 @@
       <c r="G39">
         <v>660000000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>126</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1414,8 +1673,14 @@
       <c r="G40">
         <v>690000000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>126</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1438,8 +1703,14 @@
       <c r="G41">
         <v>720000000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>126</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1462,8 +1733,14 @@
       <c r="G42">
         <v>750000000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>126</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1486,8 +1763,14 @@
       <c r="G43">
         <v>780000000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>126</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1510,8 +1793,14 @@
       <c r="G44">
         <v>810000000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>126</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1534,8 +1823,14 @@
       <c r="G45">
         <v>840000000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>126</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1558,8 +1853,14 @@
       <c r="G46">
         <v>870000000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>126</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1582,8 +1883,14 @@
       <c r="G47">
         <v>900000000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>126</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1606,8 +1913,15 @@
       <c r="G48">
         <v>930000000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>126</v>
+      </c>
+      <c r="I48">
+        <f>I43+VLOOKUP(QUOTIENT(A48-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1630,8 +1944,15 @@
       <c r="G49">
         <v>960000000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>126</v>
+      </c>
+      <c r="I49">
+        <f>I44+VLOOKUP(QUOTIENT(A49-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1654,8 +1975,15 @@
       <c r="G50">
         <v>990000000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>126</v>
+      </c>
+      <c r="I50">
+        <f>I45+VLOOKUP(QUOTIENT(A50-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1678,8 +2006,15 @@
       <c r="G51">
         <v>1020000000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>126</v>
+      </c>
+      <c r="I51">
+        <f>I46+VLOOKUP(QUOTIENT(A51-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1702,8 +2037,15 @@
       <c r="G52">
         <v>1050000000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>126</v>
+      </c>
+      <c r="I52">
+        <f>I47+VLOOKUP(QUOTIENT(A52-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1726,8 +2068,15 @@
       <c r="G53">
         <v>1080000000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>126</v>
+      </c>
+      <c r="I53">
+        <f>I48+VLOOKUP(QUOTIENT(A53-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1750,8 +2099,15 @@
       <c r="G54">
         <v>1110000000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>126</v>
+      </c>
+      <c r="I54">
+        <f>I49+VLOOKUP(QUOTIENT(A54-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1774,8 +2130,15 @@
       <c r="G55">
         <v>1140000000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>126</v>
+      </c>
+      <c r="I55">
+        <f>I50+VLOOKUP(QUOTIENT(A55-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1798,8 +2161,15 @@
       <c r="G56">
         <v>1170000000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>126</v>
+      </c>
+      <c r="I56">
+        <f>I51+VLOOKUP(QUOTIENT(A56-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1822,8 +2192,15 @@
       <c r="G57">
         <v>1200000000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>126</v>
+      </c>
+      <c r="I57">
+        <f>I52+VLOOKUP(QUOTIENT(A57-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1846,8 +2223,15 @@
       <c r="G58">
         <v>1230000000000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <v>126</v>
+      </c>
+      <c r="I58">
+        <f>I53+VLOOKUP(QUOTIENT(A58-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1870,8 +2254,15 @@
       <c r="G59">
         <v>1260000000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>126</v>
+      </c>
+      <c r="I59">
+        <f>I54+VLOOKUP(QUOTIENT(A59-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1894,8 +2285,15 @@
       <c r="G60">
         <v>1290000000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>126</v>
+      </c>
+      <c r="I60">
+        <f>I55+VLOOKUP(QUOTIENT(A60-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1918,8 +2316,15 @@
       <c r="G61">
         <v>1320000000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>126</v>
+      </c>
+      <c r="I61">
+        <f>I56+VLOOKUP(QUOTIENT(A61-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1942,8 +2347,15 @@
       <c r="G62">
         <v>1350000000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>126</v>
+      </c>
+      <c r="I62">
+        <f>I57+VLOOKUP(QUOTIENT(A62-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1966,8 +2378,15 @@
       <c r="G63">
         <v>1380000000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>126</v>
+      </c>
+      <c r="I63">
+        <f>I58+VLOOKUP(QUOTIENT(A63-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1990,8 +2409,15 @@
       <c r="G64">
         <v>1410000000000</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <v>126</v>
+      </c>
+      <c r="I64">
+        <f>I59+VLOOKUP(QUOTIENT(A64-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2014,8 +2440,15 @@
       <c r="G65">
         <v>1440000000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <v>126</v>
+      </c>
+      <c r="I65">
+        <f>I60+VLOOKUP(QUOTIENT(A65-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2038,8 +2471,15 @@
       <c r="G66">
         <v>1470000000000</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>126</v>
+      </c>
+      <c r="I66">
+        <f>I61+VLOOKUP(QUOTIENT(A66-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2062,8 +2502,15 @@
       <c r="G67">
         <v>1500000000000</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>126</v>
+      </c>
+      <c r="I67">
+        <f>I62+VLOOKUP(QUOTIENT(A67-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2086,8 +2533,15 @@
       <c r="G68">
         <v>1530000000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>126</v>
+      </c>
+      <c r="I68">
+        <f>I63+VLOOKUP(QUOTIENT(A68-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2110,8 +2564,15 @@
       <c r="G69">
         <v>1560000000000</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>126</v>
+      </c>
+      <c r="I69">
+        <f>I64+VLOOKUP(QUOTIENT(A69-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2134,8 +2595,15 @@
       <c r="G70">
         <v>1590000000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <v>126</v>
+      </c>
+      <c r="I70">
+        <f>I65+VLOOKUP(QUOTIENT(A70-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2158,8 +2626,15 @@
       <c r="G71">
         <v>1620000000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>126</v>
+      </c>
+      <c r="I71">
+        <f>I66+VLOOKUP(QUOTIENT(A71-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2182,8 +2657,15 @@
       <c r="G72">
         <v>1650000000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>126</v>
+      </c>
+      <c r="I72">
+        <f>I67+VLOOKUP(QUOTIENT(A72-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2206,8 +2688,15 @@
       <c r="G73">
         <v>1680000000000</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>126</v>
+      </c>
+      <c r="I73">
+        <f>I68+VLOOKUP(QUOTIENT(A73-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2230,8 +2719,15 @@
       <c r="G74">
         <v>1710000000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>126</v>
+      </c>
+      <c r="I74">
+        <f>I69+VLOOKUP(QUOTIENT(A74-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2254,8 +2750,15 @@
       <c r="G75">
         <v>1740000000000</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <v>126</v>
+      </c>
+      <c r="I75">
+        <f>I70+VLOOKUP(QUOTIENT(A75-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2278,8 +2781,15 @@
       <c r="G76">
         <v>1770000000000</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <v>126</v>
+      </c>
+      <c r="I76">
+        <f>I71+VLOOKUP(QUOTIENT(A76-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2302,8 +2812,15 @@
       <c r="G77">
         <v>1800000000000</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <v>126</v>
+      </c>
+      <c r="I77">
+        <f>I72+VLOOKUP(QUOTIENT(A77-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2326,8 +2843,15 @@
       <c r="G78">
         <v>1830000000000</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>126</v>
+      </c>
+      <c r="I78">
+        <f>I73+VLOOKUP(QUOTIENT(A78-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2350,8 +2874,15 @@
       <c r="G79">
         <v>1860000000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>126</v>
+      </c>
+      <c r="I79">
+        <f>I74+VLOOKUP(QUOTIENT(A79-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2374,8 +2905,15 @@
       <c r="G80">
         <v>1890000000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>126</v>
+      </c>
+      <c r="I80">
+        <f>I75+VLOOKUP(QUOTIENT(A80-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2398,8 +2936,15 @@
       <c r="G81">
         <v>1920000000000</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>126</v>
+      </c>
+      <c r="I81">
+        <f>I76+VLOOKUP(QUOTIENT(A81-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2422,8 +2967,15 @@
       <c r="G82">
         <v>1950000000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>126</v>
+      </c>
+      <c r="I82">
+        <f>I77+VLOOKUP(QUOTIENT(A82-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2446,8 +2998,15 @@
       <c r="G83">
         <v>1980000000000</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>126</v>
+      </c>
+      <c r="I83">
+        <f>I78+VLOOKUP(QUOTIENT(A83-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2470,8 +3029,15 @@
       <c r="G84">
         <v>2010000000000</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>126</v>
+      </c>
+      <c r="I84">
+        <f>I79+VLOOKUP(QUOTIENT(A84-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2494,8 +3060,15 @@
       <c r="G85">
         <v>2040000000000</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>126</v>
+      </c>
+      <c r="I85">
+        <f>I80+VLOOKUP(QUOTIENT(A85-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2518,8 +3091,15 @@
       <c r="G86">
         <v>2070000000000</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <v>126</v>
+      </c>
+      <c r="I86">
+        <f>I81+VLOOKUP(QUOTIENT(A86-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2542,8 +3122,15 @@
       <c r="G87">
         <v>2100000000000</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <v>126</v>
+      </c>
+      <c r="I87">
+        <f>I82+VLOOKUP(QUOTIENT(A87-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2566,8 +3153,15 @@
       <c r="G88">
         <v>2130000000000</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <v>126</v>
+      </c>
+      <c r="I88">
+        <f>I83+VLOOKUP(QUOTIENT(A88-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2590,8 +3184,15 @@
       <c r="G89">
         <v>2160000000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>126</v>
+      </c>
+      <c r="I89">
+        <f>I84+VLOOKUP(QUOTIENT(A89-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2614,8 +3215,15 @@
       <c r="G90">
         <v>2190000000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <v>126</v>
+      </c>
+      <c r="I90">
+        <f>I85+VLOOKUP(QUOTIENT(A90-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2638,8 +3246,15 @@
       <c r="G91">
         <v>2220000000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <v>126</v>
+      </c>
+      <c r="I91">
+        <f>I86+VLOOKUP(QUOTIENT(A91-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2662,8 +3277,15 @@
       <c r="G92">
         <v>2250000000000</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <v>126</v>
+      </c>
+      <c r="I92">
+        <f>I87+VLOOKUP(QUOTIENT(A92-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.49999999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2686,8 +3308,15 @@
       <c r="G93">
         <v>2280000000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <v>126</v>
+      </c>
+      <c r="I93">
+        <f>I88+VLOOKUP(QUOTIENT(A93-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2710,8 +3339,15 @@
       <c r="G94">
         <v>2310000000000</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <v>126</v>
+      </c>
+      <c r="I94">
+        <f>I89+VLOOKUP(QUOTIENT(A94-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2734,8 +3370,15 @@
       <c r="G95">
         <v>2340000000000</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <v>126</v>
+      </c>
+      <c r="I95">
+        <f>I90+VLOOKUP(QUOTIENT(A95-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2758,8 +3401,15 @@
       <c r="G96">
         <v>2370000000000</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <v>126</v>
+      </c>
+      <c r="I96">
+        <f>I91+VLOOKUP(QUOTIENT(A96-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2782,8 +3432,15 @@
       <c r="G97">
         <v>2400000000000</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <v>126</v>
+      </c>
+      <c r="I97">
+        <f>I92+VLOOKUP(QUOTIENT(A97-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2806,8 +3463,15 @@
       <c r="G98">
         <v>2430000000000</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <v>126</v>
+      </c>
+      <c r="I98">
+        <f>I93+VLOOKUP(QUOTIENT(A98-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2830,8 +3494,15 @@
       <c r="G99">
         <v>2460000000000</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <v>126</v>
+      </c>
+      <c r="I99">
+        <f>I94+VLOOKUP(QUOTIENT(A99-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2854,8 +3525,15 @@
       <c r="G100">
         <v>2490000000000</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>126</v>
+      </c>
+      <c r="I100">
+        <f>I95+VLOOKUP(QUOTIENT(A100-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2878,8 +3556,15 @@
       <c r="G101">
         <v>2520000000000</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <v>126</v>
+      </c>
+      <c r="I101">
+        <f>I96+VLOOKUP(QUOTIENT(A101-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2902,8 +3587,15 @@
       <c r="G102">
         <v>2550000000000</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <v>126</v>
+      </c>
+      <c r="I102">
+        <f>I97+VLOOKUP(QUOTIENT(A102-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2926,8 +3618,15 @@
       <c r="G103">
         <v>2580000000000</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <v>126</v>
+      </c>
+      <c r="I103">
+        <f>I98+VLOOKUP(QUOTIENT(A103-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2950,8 +3649,15 @@
       <c r="G104">
         <v>2610000000000</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <v>126</v>
+      </c>
+      <c r="I104">
+        <f>I99+VLOOKUP(QUOTIENT(A104-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2974,8 +3680,15 @@
       <c r="G105">
         <v>2640000000000</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <v>126</v>
+      </c>
+      <c r="I105">
+        <f>I100+VLOOKUP(QUOTIENT(A105-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2998,8 +3711,15 @@
       <c r="G106">
         <v>2670000000000</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <v>126</v>
+      </c>
+      <c r="I106">
+        <f>I101+VLOOKUP(QUOTIENT(A106-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3022,8 +3742,15 @@
       <c r="G107">
         <v>2700000000000</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <v>126</v>
+      </c>
+      <c r="I107">
+        <f>I102+VLOOKUP(QUOTIENT(A107-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3046,8 +3773,15 @@
       <c r="G108">
         <v>2730000000000</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <v>126</v>
+      </c>
+      <c r="I108">
+        <f>I103+VLOOKUP(QUOTIENT(A108-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3070,8 +3804,15 @@
       <c r="G109">
         <v>2760000000000</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <v>126</v>
+      </c>
+      <c r="I109">
+        <f>I104+VLOOKUP(QUOTIENT(A109-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3094,8 +3835,15 @@
       <c r="G110">
         <v>2790000000000</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <v>126</v>
+      </c>
+      <c r="I110">
+        <f>I105+VLOOKUP(QUOTIENT(A110-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3118,8 +3866,15 @@
       <c r="G111">
         <v>2820000000000</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <v>126</v>
+      </c>
+      <c r="I111">
+        <f>I106+VLOOKUP(QUOTIENT(A111-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3142,8 +3897,15 @@
       <c r="G112">
         <v>2850000000000</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <v>126</v>
+      </c>
+      <c r="I112">
+        <f>I107+VLOOKUP(QUOTIENT(A112-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3166,8 +3928,15 @@
       <c r="G113">
         <v>2880000000000</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <v>126</v>
+      </c>
+      <c r="I113">
+        <f>I108+VLOOKUP(QUOTIENT(A113-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3190,8 +3959,15 @@
       <c r="G114">
         <v>2910000000000</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <v>126</v>
+      </c>
+      <c r="I114">
+        <f>I109+VLOOKUP(QUOTIENT(A114-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3214,8 +3990,15 @@
       <c r="G115">
         <v>2940000000000</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <v>126</v>
+      </c>
+      <c r="I115">
+        <f>I110+VLOOKUP(QUOTIENT(A115-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3238,8 +4021,15 @@
       <c r="G116">
         <v>2970000000000</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <v>126</v>
+      </c>
+      <c r="I116">
+        <f>I111+VLOOKUP(QUOTIENT(A116-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3262,8 +4052,15 @@
       <c r="G117">
         <v>3000000000000</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <v>126</v>
+      </c>
+      <c r="I117">
+        <f>I112+VLOOKUP(QUOTIENT(A117-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3286,8 +4083,15 @@
       <c r="G118">
         <v>3030000000000</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <v>126</v>
+      </c>
+      <c r="I118">
+        <f>I113+VLOOKUP(QUOTIENT(A118-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3310,8 +4114,15 @@
       <c r="G119">
         <v>3060000000000</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <v>126</v>
+      </c>
+      <c r="I119">
+        <f>I114+VLOOKUP(QUOTIENT(A119-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3334,8 +4145,15 @@
       <c r="G120">
         <v>3090000000000</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <v>126</v>
+      </c>
+      <c r="I120">
+        <f>I115+VLOOKUP(QUOTIENT(A120-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3358,8 +4176,15 @@
       <c r="G121">
         <v>3120000000000</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <v>126</v>
+      </c>
+      <c r="I121">
+        <f>I116+VLOOKUP(QUOTIENT(A121-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3382,8 +4207,15 @@
       <c r="G122">
         <v>3150000000000</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <v>126</v>
+      </c>
+      <c r="I122">
+        <f>I117+VLOOKUP(QUOTIENT(A122-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3406,8 +4238,15 @@
       <c r="G123">
         <v>3180000000000</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <v>126</v>
+      </c>
+      <c r="I123">
+        <f>I118+VLOOKUP(QUOTIENT(A123-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3430,8 +4269,15 @@
       <c r="G124">
         <v>3210000000000</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <v>126</v>
+      </c>
+      <c r="I124">
+        <f>I119+VLOOKUP(QUOTIENT(A124-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3454,8 +4300,15 @@
       <c r="G125">
         <v>3240000000000</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <v>126</v>
+      </c>
+      <c r="I125">
+        <f>I120+VLOOKUP(QUOTIENT(A125-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3478,8 +4331,15 @@
       <c r="G126">
         <v>3270000000000</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <v>126</v>
+      </c>
+      <c r="I126">
+        <f>I121+VLOOKUP(QUOTIENT(A126-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3502,8 +4362,15 @@
       <c r="G127">
         <v>3300000000000</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <v>126</v>
+      </c>
+      <c r="I127">
+        <f>I122+VLOOKUP(QUOTIENT(A127-1,50),Balance!B:E,4,FALSE)</f>
+        <v>0.95000000000000018</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3526,8 +4393,15 @@
       <c r="G128">
         <v>3330000000000</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <v>126</v>
+      </c>
+      <c r="I128">
+        <f>I123+VLOOKUP(QUOTIENT(A128-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0200000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3550,8 +4424,15 @@
       <c r="G129">
         <v>3360000000000</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <v>126</v>
+      </c>
+      <c r="I129">
+        <f>I124+VLOOKUP(QUOTIENT(A129-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0200000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3574,8 +4455,15 @@
       <c r="G130">
         <v>3390000000000</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <v>126</v>
+      </c>
+      <c r="I130">
+        <f>I125+VLOOKUP(QUOTIENT(A130-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0200000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3598,8 +4486,15 @@
       <c r="G131">
         <v>3420000000000</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <v>126</v>
+      </c>
+      <c r="I131">
+        <f>I126+VLOOKUP(QUOTIENT(A131-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0200000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3622,8 +4517,15 @@
       <c r="G132">
         <v>3450000000000</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <v>126</v>
+      </c>
+      <c r="I132">
+        <f>I127+VLOOKUP(QUOTIENT(A132-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0200000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -3646,8 +4548,15 @@
       <c r="G133">
         <v>3480000000000</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <v>126</v>
+      </c>
+      <c r="I133">
+        <f>I128+VLOOKUP(QUOTIENT(A133-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0900000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -3670,8 +4579,15 @@
       <c r="G134">
         <v>3510000000000</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <v>126</v>
+      </c>
+      <c r="I134">
+        <f>I129+VLOOKUP(QUOTIENT(A134-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0900000000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -3694,8 +4610,15 @@
       <c r="G135">
         <v>3540000000000</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <v>126</v>
+      </c>
+      <c r="I135">
+        <f>I130+VLOOKUP(QUOTIENT(A135-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0900000000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -3718,8 +4641,15 @@
       <c r="G136">
         <v>3570000000000</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <v>126</v>
+      </c>
+      <c r="I136">
+        <f>I131+VLOOKUP(QUOTIENT(A136-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0900000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -3742,8 +4672,15 @@
       <c r="G137">
         <v>3600000000000</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <v>126</v>
+      </c>
+      <c r="I137">
+        <f>I132+VLOOKUP(QUOTIENT(A137-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.0900000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3766,8 +4703,15 @@
       <c r="G138">
         <v>3630000000000</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <v>126</v>
+      </c>
+      <c r="I138">
+        <f>I133+VLOOKUP(QUOTIENT(A138-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.1600000000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -3790,8 +4734,15 @@
       <c r="G139">
         <v>3660000000000</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <v>126</v>
+      </c>
+      <c r="I139">
+        <f>I134+VLOOKUP(QUOTIENT(A139-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.1600000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -3814,8 +4765,15 @@
       <c r="G140">
         <v>3690000000000</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <v>126</v>
+      </c>
+      <c r="I140">
+        <f>I135+VLOOKUP(QUOTIENT(A140-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.1600000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -3838,8 +4796,15 @@
       <c r="G141">
         <v>3720000000000</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <v>126</v>
+      </c>
+      <c r="I141">
+        <f>I136+VLOOKUP(QUOTIENT(A141-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.1600000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -3862,8 +4827,15 @@
       <c r="G142">
         <v>3750000000000</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <v>126</v>
+      </c>
+      <c r="I142">
+        <f>I137+VLOOKUP(QUOTIENT(A142-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.1600000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -3886,8 +4858,15 @@
       <c r="G143">
         <v>3780000000000</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <v>126</v>
+      </c>
+      <c r="I143">
+        <f>I138+VLOOKUP(QUOTIENT(A143-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -3910,8 +4889,15 @@
       <c r="G144">
         <v>3810000000000</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <v>126</v>
+      </c>
+      <c r="I144">
+        <f>I139+VLOOKUP(QUOTIENT(A144-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -3934,8 +4920,15 @@
       <c r="G145">
         <v>3840000000000</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <v>126</v>
+      </c>
+      <c r="I145">
+        <f>I140+VLOOKUP(QUOTIENT(A145-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -3958,8 +4951,15 @@
       <c r="G146">
         <v>3870000000000</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <v>126</v>
+      </c>
+      <c r="I146">
+        <f>I141+VLOOKUP(QUOTIENT(A146-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -3982,8 +4982,15 @@
       <c r="G147">
         <v>3900000000000</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <v>126</v>
+      </c>
+      <c r="I147">
+        <f>I142+VLOOKUP(QUOTIENT(A147-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.2300000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4006,8 +5013,15 @@
       <c r="G148">
         <v>3930000000000</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <v>126</v>
+      </c>
+      <c r="I148">
+        <f>I143+VLOOKUP(QUOTIENT(A148-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3000000000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4030,8 +5044,15 @@
       <c r="G149">
         <v>3960000000000</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <v>126</v>
+      </c>
+      <c r="I149">
+        <f>I144+VLOOKUP(QUOTIENT(A149-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3000000000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4054,8 +5075,15 @@
       <c r="G150">
         <v>3990000000000</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <v>126</v>
+      </c>
+      <c r="I150">
+        <f>I145+VLOOKUP(QUOTIENT(A150-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3000000000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4078,8 +5106,15 @@
       <c r="G151">
         <v>4020000000000</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <v>126</v>
+      </c>
+      <c r="I151">
+        <f>I146+VLOOKUP(QUOTIENT(A151-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3000000000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4102,8 +5137,15 @@
       <c r="G152">
         <v>4050000000000</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <v>126</v>
+      </c>
+      <c r="I152">
+        <f>I147+VLOOKUP(QUOTIENT(A152-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3000000000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4126,8 +5168,15 @@
       <c r="G153">
         <v>4080000000000</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <v>126</v>
+      </c>
+      <c r="I153">
+        <f>I148+VLOOKUP(QUOTIENT(A153-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3800000000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4150,8 +5199,15 @@
       <c r="G154">
         <v>4110000000000</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <v>126</v>
+      </c>
+      <c r="I154">
+        <f>I149+VLOOKUP(QUOTIENT(A154-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3800000000000006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4174,8 +5230,15 @@
       <c r="G155">
         <v>4140000000000</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <v>126</v>
+      </c>
+      <c r="I155">
+        <f>I150+VLOOKUP(QUOTIENT(A155-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3800000000000006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4198,8 +5261,15 @@
       <c r="G156">
         <v>4170000000000</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <v>126</v>
+      </c>
+      <c r="I156">
+        <f>I151+VLOOKUP(QUOTIENT(A156-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3800000000000006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4222,8 +5292,15 @@
       <c r="G157">
         <v>4200000000000</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <v>126</v>
+      </c>
+      <c r="I157">
+        <f>I152+VLOOKUP(QUOTIENT(A157-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.3800000000000006</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4246,8 +5323,15 @@
       <c r="G158">
         <v>4230000000000</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <v>126</v>
+      </c>
+      <c r="I158">
+        <f>I153+VLOOKUP(QUOTIENT(A158-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.4600000000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4270,8 +5354,15 @@
       <c r="G159">
         <v>4260000000000</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <v>126</v>
+      </c>
+      <c r="I159">
+        <f>I154+VLOOKUP(QUOTIENT(A159-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.4600000000000006</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4294,8 +5385,15 @@
       <c r="G160">
         <v>4290000000000</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <v>126</v>
+      </c>
+      <c r="I160">
+        <f>I155+VLOOKUP(QUOTIENT(A160-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.4600000000000006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4318,8 +5416,15 @@
       <c r="G161">
         <v>4320000000000</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <v>126</v>
+      </c>
+      <c r="I161">
+        <f>I156+VLOOKUP(QUOTIENT(A161-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.4600000000000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4342,8 +5447,15 @@
       <c r="G162">
         <v>4350000000000</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <v>126</v>
+      </c>
+      <c r="I162">
+        <f>I157+VLOOKUP(QUOTIENT(A162-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.4600000000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4366,8 +5478,15 @@
       <c r="G163">
         <v>4380000000000</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <v>126</v>
+      </c>
+      <c r="I163">
+        <f>I158+VLOOKUP(QUOTIENT(A163-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.5400000000000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -4390,8 +5509,15 @@
       <c r="G164">
         <v>4410000000000</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <v>126</v>
+      </c>
+      <c r="I164">
+        <f>I159+VLOOKUP(QUOTIENT(A164-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.5400000000000007</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -4414,8 +5540,15 @@
       <c r="G165">
         <v>4440000000000</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <v>126</v>
+      </c>
+      <c r="I165">
+        <f>I160+VLOOKUP(QUOTIENT(A165-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.5400000000000007</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -4438,8 +5571,15 @@
       <c r="G166">
         <v>4470000000000</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <v>126</v>
+      </c>
+      <c r="I166">
+        <f>I161+VLOOKUP(QUOTIENT(A166-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.5400000000000007</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -4462,8 +5602,15 @@
       <c r="G167">
         <v>4500000000000</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <v>126</v>
+      </c>
+      <c r="I167">
+        <f>I162+VLOOKUP(QUOTIENT(A167-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.5400000000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -4486,8 +5633,15 @@
       <c r="G168">
         <v>4530000000000</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <v>126</v>
+      </c>
+      <c r="I168">
+        <f>I163+VLOOKUP(QUOTIENT(A168-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.6200000000000008</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -4510,8 +5664,15 @@
       <c r="G169">
         <v>4560000000000</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <v>126</v>
+      </c>
+      <c r="I169">
+        <f>I164+VLOOKUP(QUOTIENT(A169-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.6200000000000008</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -4534,8 +5695,15 @@
       <c r="G170">
         <v>4590000000000</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <v>126</v>
+      </c>
+      <c r="I170">
+        <f>I165+VLOOKUP(QUOTIENT(A170-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.6200000000000008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -4558,8 +5726,15 @@
       <c r="G171">
         <v>4620000000000</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <v>126</v>
+      </c>
+      <c r="I171">
+        <f>I166+VLOOKUP(QUOTIENT(A171-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.6200000000000008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -4582,8 +5757,15 @@
       <c r="G172">
         <v>4650000000000</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <v>126</v>
+      </c>
+      <c r="I172">
+        <f>I167+VLOOKUP(QUOTIENT(A172-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.6200000000000008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -4606,8 +5788,15 @@
       <c r="G173">
         <v>4680000000000</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173">
+        <v>126</v>
+      </c>
+      <c r="I173">
+        <f>I168+VLOOKUP(QUOTIENT(A173-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7000000000000008</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -4630,8 +5819,15 @@
       <c r="G174">
         <v>4710000000000</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <v>126</v>
+      </c>
+      <c r="I174">
+        <f>I169+VLOOKUP(QUOTIENT(A174-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7000000000000008</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -4654,8 +5850,15 @@
       <c r="G175">
         <v>4740000000000</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <v>126</v>
+      </c>
+      <c r="I175">
+        <f>I170+VLOOKUP(QUOTIENT(A175-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7000000000000008</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -4678,8 +5881,15 @@
       <c r="G176">
         <v>4770000000000</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <v>126</v>
+      </c>
+      <c r="I176">
+        <f>I171+VLOOKUP(QUOTIENT(A176-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7000000000000008</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -4702,8 +5912,15 @@
       <c r="G177">
         <v>4800000000000</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>126</v>
+      </c>
+      <c r="I177">
+        <f>I172+VLOOKUP(QUOTIENT(A177-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7000000000000008</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -4726,8 +5943,15 @@
       <c r="G178">
         <v>4830000000000</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>126</v>
+      </c>
+      <c r="I178">
+        <f>I173+VLOOKUP(QUOTIENT(A178-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7800000000000009</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -4750,8 +5974,15 @@
       <c r="G179">
         <v>4860000000000</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <v>126</v>
+      </c>
+      <c r="I179">
+        <f>I174+VLOOKUP(QUOTIENT(A179-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7800000000000009</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -4774,8 +6005,15 @@
       <c r="G180">
         <v>4890000000000</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <v>126</v>
+      </c>
+      <c r="I180">
+        <f>I175+VLOOKUP(QUOTIENT(A180-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7800000000000009</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -4798,8 +6036,15 @@
       <c r="G181">
         <v>4920000000000</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <v>126</v>
+      </c>
+      <c r="I181">
+        <f>I176+VLOOKUP(QUOTIENT(A181-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7800000000000009</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -4822,8 +6067,15 @@
       <c r="G182">
         <v>4950000000000</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182">
+        <v>126</v>
+      </c>
+      <c r="I182">
+        <f>I177+VLOOKUP(QUOTIENT(A182-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.7800000000000009</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -4846,8 +6098,15 @@
       <c r="G183">
         <v>4980000000000</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <v>126</v>
+      </c>
+      <c r="I183">
+        <f>I178+VLOOKUP(QUOTIENT(A183-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.860000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -4870,8 +6129,15 @@
       <c r="G184">
         <v>5010000000000</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <v>126</v>
+      </c>
+      <c r="I184">
+        <f>I179+VLOOKUP(QUOTIENT(A184-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.860000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -4894,8 +6160,15 @@
       <c r="G185">
         <v>5040000000000</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <v>126</v>
+      </c>
+      <c r="I185">
+        <f>I180+VLOOKUP(QUOTIENT(A185-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.860000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -4918,8 +6191,15 @@
       <c r="G186">
         <v>5070000000000</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <v>126</v>
+      </c>
+      <c r="I186">
+        <f>I181+VLOOKUP(QUOTIENT(A186-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.860000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -4942,8 +6222,15 @@
       <c r="G187">
         <v>5100000000000</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <v>126</v>
+      </c>
+      <c r="I187">
+        <f>I182+VLOOKUP(QUOTIENT(A187-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.860000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -4966,8 +6253,15 @@
       <c r="G188">
         <v>5130000000000</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <v>126</v>
+      </c>
+      <c r="I188">
+        <f>I183+VLOOKUP(QUOTIENT(A188-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.9400000000000011</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -4990,8 +6284,15 @@
       <c r="G189">
         <v>5160000000000</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>126</v>
+      </c>
+      <c r="I189">
+        <f>I184+VLOOKUP(QUOTIENT(A189-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.9400000000000011</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5014,8 +6315,15 @@
       <c r="G190">
         <v>5190000000000</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <v>126</v>
+      </c>
+      <c r="I190">
+        <f>I185+VLOOKUP(QUOTIENT(A190-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.9400000000000011</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5038,8 +6346,15 @@
       <c r="G191">
         <v>5220000000000</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <v>126</v>
+      </c>
+      <c r="I191">
+        <f>I186+VLOOKUP(QUOTIENT(A191-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.9400000000000011</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5062,8 +6377,15 @@
       <c r="G192">
         <v>5250000000000</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <v>126</v>
+      </c>
+      <c r="I192">
+        <f>I187+VLOOKUP(QUOTIENT(A192-1,50),Balance!B:E,4,FALSE)</f>
+        <v>1.9400000000000011</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5086,8 +6408,15 @@
       <c r="G193">
         <v>5280000000000</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <v>126</v>
+      </c>
+      <c r="I193">
+        <f>I188+VLOOKUP(QUOTIENT(A193-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.0200000000000009</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5110,8 +6439,15 @@
       <c r="G194">
         <v>5310000000000</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <v>126</v>
+      </c>
+      <c r="I194">
+        <f>I189+VLOOKUP(QUOTIENT(A194-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.0200000000000009</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5134,8 +6470,15 @@
       <c r="G195">
         <v>5340000000000</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <v>126</v>
+      </c>
+      <c r="I195">
+        <f>I190+VLOOKUP(QUOTIENT(A195-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.0200000000000009</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5158,8 +6501,15 @@
       <c r="G196">
         <v>5370000000000</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <v>126</v>
+      </c>
+      <c r="I196">
+        <f>I191+VLOOKUP(QUOTIENT(A196-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.0200000000000009</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5182,8 +6532,15 @@
       <c r="G197">
         <v>5400000000000</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <v>126</v>
+      </c>
+      <c r="I197">
+        <f>I192+VLOOKUP(QUOTIENT(A197-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.0200000000000009</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5206,8 +6563,15 @@
       <c r="G198">
         <v>5430000000000</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <v>126</v>
+      </c>
+      <c r="I198">
+        <f>I193+VLOOKUP(QUOTIENT(A198-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5230,8 +6594,15 @@
       <c r="G199">
         <v>5460000000000</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <v>126</v>
+      </c>
+      <c r="I199">
+        <f>I194+VLOOKUP(QUOTIENT(A199-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5254,8 +6625,15 @@
       <c r="G200">
         <v>5490000000000</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <v>126</v>
+      </c>
+      <c r="I200">
+        <f>I195+VLOOKUP(QUOTIENT(A200-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5278,8 +6656,15 @@
       <c r="G201">
         <v>5520000000000</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <v>126</v>
+      </c>
+      <c r="I201">
+        <f>I196+VLOOKUP(QUOTIENT(A201-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5302,8 +6687,15 @@
       <c r="G202">
         <v>5550000000000</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <v>126</v>
+      </c>
+      <c r="I202">
+        <f>I197+VLOOKUP(QUOTIENT(A202-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -5326,8 +6718,15 @@
       <c r="G203">
         <v>5580000000000</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <v>126</v>
+      </c>
+      <c r="I203">
+        <f>I198+VLOOKUP(QUOTIENT(A203-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.2000000000000011</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -5350,8 +6749,15 @@
       <c r="G204">
         <v>5610000000000</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <v>126</v>
+      </c>
+      <c r="I204">
+        <f>I199+VLOOKUP(QUOTIENT(A204-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.2000000000000011</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -5374,8 +6780,15 @@
       <c r="G205">
         <v>5640000000000</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <v>126</v>
+      </c>
+      <c r="I205">
+        <f>I200+VLOOKUP(QUOTIENT(A205-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.2000000000000011</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -5398,8 +6811,15 @@
       <c r="G206">
         <v>5670000000000</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <v>126</v>
+      </c>
+      <c r="I206">
+        <f>I201+VLOOKUP(QUOTIENT(A206-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.2000000000000011</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -5422,8 +6842,15 @@
       <c r="G207">
         <v>5700000000000</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <v>126</v>
+      </c>
+      <c r="I207">
+        <f>I202+VLOOKUP(QUOTIENT(A207-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.2000000000000011</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -5446,8 +6873,15 @@
       <c r="G208">
         <v>5730000000000</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <v>126</v>
+      </c>
+      <c r="I208">
+        <f>I203+VLOOKUP(QUOTIENT(A208-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.3000000000000012</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -5470,8 +6904,15 @@
       <c r="G209">
         <v>5760000000000</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <v>126</v>
+      </c>
+      <c r="I209">
+        <f>I204+VLOOKUP(QUOTIENT(A209-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.3000000000000012</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -5494,8 +6935,15 @@
       <c r="G210">
         <v>5790000000000</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <v>126</v>
+      </c>
+      <c r="I210">
+        <f>I205+VLOOKUP(QUOTIENT(A210-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.3000000000000012</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -5518,8 +6966,15 @@
       <c r="G211">
         <v>5820000000000</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <v>126</v>
+      </c>
+      <c r="I211">
+        <f>I206+VLOOKUP(QUOTIENT(A211-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.3000000000000012</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -5542,8 +6997,15 @@
       <c r="G212">
         <v>5850000000000</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <v>126</v>
+      </c>
+      <c r="I212">
+        <f>I207+VLOOKUP(QUOTIENT(A212-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.3000000000000012</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -5566,8 +7028,15 @@
       <c r="G213">
         <v>5880000000000</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213">
+        <v>126</v>
+      </c>
+      <c r="I213">
+        <f>I208+VLOOKUP(QUOTIENT(A213-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.4000000000000012</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -5590,8 +7059,15 @@
       <c r="G214">
         <v>5910000000000</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <v>126</v>
+      </c>
+      <c r="I214">
+        <f>I209+VLOOKUP(QUOTIENT(A214-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.4000000000000012</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -5614,8 +7090,15 @@
       <c r="G215">
         <v>5940000000000</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <v>126</v>
+      </c>
+      <c r="I215">
+        <f>I210+VLOOKUP(QUOTIENT(A215-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.4000000000000012</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -5638,8 +7121,15 @@
       <c r="G216">
         <v>5970000000000</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <v>126</v>
+      </c>
+      <c r="I216">
+        <f>I211+VLOOKUP(QUOTIENT(A216-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.4000000000000012</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -5662,8 +7152,15 @@
       <c r="G217">
         <v>6000000000000</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217">
+        <v>126</v>
+      </c>
+      <c r="I217">
+        <f>I212+VLOOKUP(QUOTIENT(A217-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.4000000000000012</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -5686,8 +7183,15 @@
       <c r="G218">
         <v>6030000000000</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218">
+        <v>126</v>
+      </c>
+      <c r="I218">
+        <f>I213+VLOOKUP(QUOTIENT(A218-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.5000000000000013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -5710,8 +7214,15 @@
       <c r="G219">
         <v>6060000000000</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219">
+        <v>126</v>
+      </c>
+      <c r="I219">
+        <f>I214+VLOOKUP(QUOTIENT(A219-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.5000000000000013</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -5734,8 +7245,15 @@
       <c r="G220">
         <v>6090000000000</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <v>126</v>
+      </c>
+      <c r="I220">
+        <f>I215+VLOOKUP(QUOTIENT(A220-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.5000000000000013</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -5758,8 +7276,15 @@
       <c r="G221">
         <v>6120000000000</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <v>126</v>
+      </c>
+      <c r="I221">
+        <f>I216+VLOOKUP(QUOTIENT(A221-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.5000000000000013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -5782,8 +7307,15 @@
       <c r="G222">
         <v>6150000000000</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222">
+        <v>126</v>
+      </c>
+      <c r="I222">
+        <f>I217+VLOOKUP(QUOTIENT(A222-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.5000000000000013</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -5806,8 +7338,15 @@
       <c r="G223">
         <v>6180000000000</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223">
+        <v>126</v>
+      </c>
+      <c r="I223">
+        <f>I218+VLOOKUP(QUOTIENT(A223-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -5830,8 +7369,15 @@
       <c r="G224">
         <v>6210000000000</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224">
+        <v>126</v>
+      </c>
+      <c r="I224">
+        <f>I219+VLOOKUP(QUOTIENT(A224-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -5854,8 +7400,15 @@
       <c r="G225">
         <v>6240000000000</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225">
+        <v>126</v>
+      </c>
+      <c r="I225">
+        <f>I220+VLOOKUP(QUOTIENT(A225-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -5878,8 +7431,15 @@
       <c r="G226">
         <v>6270000000000</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <v>126</v>
+      </c>
+      <c r="I226">
+        <f>I221+VLOOKUP(QUOTIENT(A226-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -5902,8 +7462,15 @@
       <c r="G227">
         <v>6300000000000</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227">
+        <v>126</v>
+      </c>
+      <c r="I227">
+        <f>I222+VLOOKUP(QUOTIENT(A227-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -5926,8 +7493,15 @@
       <c r="G228">
         <v>6330000000000</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228">
+        <v>126</v>
+      </c>
+      <c r="I228">
+        <f>I223+VLOOKUP(QUOTIENT(A228-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.7000000000000015</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -5950,8 +7524,15 @@
       <c r="G229">
         <v>6360000000000</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229">
+        <v>126</v>
+      </c>
+      <c r="I229">
+        <f>I224+VLOOKUP(QUOTIENT(A229-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.7000000000000015</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -5974,8 +7555,15 @@
       <c r="G230">
         <v>6390000000000</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <v>126</v>
+      </c>
+      <c r="I230">
+        <f>I225+VLOOKUP(QUOTIENT(A230-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.7000000000000015</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -5998,8 +7586,15 @@
       <c r="G231">
         <v>6420000000000</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <v>126</v>
+      </c>
+      <c r="I231">
+        <f>I226+VLOOKUP(QUOTIENT(A231-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.7000000000000015</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6022,8 +7617,15 @@
       <c r="G232">
         <v>6450000000000</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <v>126</v>
+      </c>
+      <c r="I232">
+        <f>I227+VLOOKUP(QUOTIENT(A232-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.7000000000000015</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6046,8 +7648,15 @@
       <c r="G233">
         <v>6480000000000</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233">
+        <v>126</v>
+      </c>
+      <c r="I233">
+        <f>I228+VLOOKUP(QUOTIENT(A233-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.8000000000000016</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6070,8 +7679,15 @@
       <c r="G234">
         <v>6510000000000</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234">
+        <v>126</v>
+      </c>
+      <c r="I234">
+        <f>I229+VLOOKUP(QUOTIENT(A234-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.8000000000000016</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6094,8 +7710,15 @@
       <c r="G235">
         <v>6540000000000</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <v>126</v>
+      </c>
+      <c r="I235">
+        <f>I230+VLOOKUP(QUOTIENT(A235-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.8000000000000016</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6118,8 +7741,15 @@
       <c r="G236">
         <v>6570000000000</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236">
+        <v>126</v>
+      </c>
+      <c r="I236">
+        <f>I231+VLOOKUP(QUOTIENT(A236-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.8000000000000016</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6142,8 +7772,15 @@
       <c r="G237">
         <v>6600000000000</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <v>126</v>
+      </c>
+      <c r="I237">
+        <f>I232+VLOOKUP(QUOTIENT(A237-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.8000000000000016</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6166,8 +7803,15 @@
       <c r="G238">
         <v>6630000000000</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <v>126</v>
+      </c>
+      <c r="I238">
+        <f>I233+VLOOKUP(QUOTIENT(A238-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.9000000000000017</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6190,8 +7834,15 @@
       <c r="G239">
         <v>6660000000000</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239">
+        <v>126</v>
+      </c>
+      <c r="I239">
+        <f>I234+VLOOKUP(QUOTIENT(A239-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.9000000000000017</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6214,8 +7865,15 @@
       <c r="G240">
         <v>6690000000000</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <v>126</v>
+      </c>
+      <c r="I240">
+        <f>I235+VLOOKUP(QUOTIENT(A240-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.9000000000000017</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -6238,8 +7896,15 @@
       <c r="G241">
         <v>6720000000000</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241">
+        <v>126</v>
+      </c>
+      <c r="I241">
+        <f>I236+VLOOKUP(QUOTIENT(A241-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.9000000000000017</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -6262,8 +7927,15 @@
       <c r="G242">
         <v>6750000000000</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242">
+        <v>126</v>
+      </c>
+      <c r="I242">
+        <f>I237+VLOOKUP(QUOTIENT(A242-1,50),Balance!B:E,4,FALSE)</f>
+        <v>2.9000000000000017</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -6286,8 +7958,15 @@
       <c r="G243">
         <v>6780000000000</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243">
+        <v>126</v>
+      </c>
+      <c r="I243">
+        <f>I238+VLOOKUP(QUOTIENT(A243-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -6310,8 +7989,15 @@
       <c r="G244">
         <v>6810000000000</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244">
+        <v>126</v>
+      </c>
+      <c r="I244">
+        <f>I239+VLOOKUP(QUOTIENT(A244-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -6334,8 +8020,15 @@
       <c r="G245">
         <v>6840000000000</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <v>126</v>
+      </c>
+      <c r="I245">
+        <f>I240+VLOOKUP(QUOTIENT(A245-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -6358,8 +8051,15 @@
       <c r="G246">
         <v>6870000000000</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246">
+        <v>126</v>
+      </c>
+      <c r="I246">
+        <f>I241+VLOOKUP(QUOTIENT(A246-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -6382,8 +8082,15 @@
       <c r="G247">
         <v>6900000000000</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247">
+        <v>126</v>
+      </c>
+      <c r="I247">
+        <f>I242+VLOOKUP(QUOTIENT(A247-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -6406,8 +8113,15 @@
       <c r="G248">
         <v>6930000000000</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248">
+        <v>126</v>
+      </c>
+      <c r="I248">
+        <f>I243+VLOOKUP(QUOTIENT(A248-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.1000000000000019</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -6430,8 +8144,15 @@
       <c r="G249">
         <v>6960000000000</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249">
+        <v>126</v>
+      </c>
+      <c r="I249">
+        <f>I244+VLOOKUP(QUOTIENT(A249-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.1000000000000019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -6454,8 +8175,15 @@
       <c r="G250">
         <v>6990000000000</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250">
+        <v>126</v>
+      </c>
+      <c r="I250">
+        <f>I245+VLOOKUP(QUOTIENT(A250-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.1000000000000019</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -6478,8 +8206,15 @@
       <c r="G251">
         <v>7020000000000</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251">
+        <v>126</v>
+      </c>
+      <c r="I251">
+        <f>I246+VLOOKUP(QUOTIENT(A251-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.1000000000000019</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -6502,8 +8237,15 @@
       <c r="G252">
         <v>7050000000000</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252">
+        <v>126</v>
+      </c>
+      <c r="I252">
+        <f>I247+VLOOKUP(QUOTIENT(A252-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.1000000000000019</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -6526,8 +8268,15 @@
       <c r="G253">
         <v>7080000000000</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253">
+        <v>126</v>
+      </c>
+      <c r="I253">
+        <f>I248+VLOOKUP(QUOTIENT(A253-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.220000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -6550,8 +8299,15 @@
       <c r="G254">
         <v>7110000000000</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254">
+        <v>126</v>
+      </c>
+      <c r="I254">
+        <f>I249+VLOOKUP(QUOTIENT(A254-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.220000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -6574,8 +8330,15 @@
       <c r="G255">
         <v>7140000000000</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255">
+        <v>126</v>
+      </c>
+      <c r="I255">
+        <f>I250+VLOOKUP(QUOTIENT(A255-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.220000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -6598,8 +8361,15 @@
       <c r="G256">
         <v>7170000000000</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256">
+        <v>126</v>
+      </c>
+      <c r="I256">
+        <f>I251+VLOOKUP(QUOTIENT(A256-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.220000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -6622,8 +8392,15 @@
       <c r="G257">
         <v>7200000000000</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257">
+        <v>126</v>
+      </c>
+      <c r="I257">
+        <f>I252+VLOOKUP(QUOTIENT(A257-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.220000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -6646,8 +8423,15 @@
       <c r="G258">
         <v>7230000000000</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258">
+        <v>126</v>
+      </c>
+      <c r="I258">
+        <f>I253+VLOOKUP(QUOTIENT(A258-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.3400000000000021</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -6670,8 +8454,15 @@
       <c r="G259">
         <v>7260000000000</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259">
+        <v>126</v>
+      </c>
+      <c r="I259">
+        <f>I254+VLOOKUP(QUOTIENT(A259-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.3400000000000021</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -6694,8 +8485,15 @@
       <c r="G260">
         <v>7290000000000</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260">
+        <v>126</v>
+      </c>
+      <c r="I260">
+        <f>I255+VLOOKUP(QUOTIENT(A260-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.3400000000000021</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -6718,8 +8516,15 @@
       <c r="G261">
         <v>7320000000000</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261">
+        <v>126</v>
+      </c>
+      <c r="I261">
+        <f>I256+VLOOKUP(QUOTIENT(A261-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.3400000000000021</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -6742,8 +8547,15 @@
       <c r="G262">
         <v>7350000000000</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262">
+        <v>126</v>
+      </c>
+      <c r="I262">
+        <f>I257+VLOOKUP(QUOTIENT(A262-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.3400000000000021</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -6766,8 +8578,15 @@
       <c r="G263">
         <v>7380000000000</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263">
+        <v>126</v>
+      </c>
+      <c r="I263">
+        <f>I258+VLOOKUP(QUOTIENT(A263-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.4600000000000022</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -6790,8 +8609,15 @@
       <c r="G264">
         <v>7410000000000</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264">
+        <v>126</v>
+      </c>
+      <c r="I264">
+        <f>I259+VLOOKUP(QUOTIENT(A264-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.4600000000000022</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -6814,8 +8640,15 @@
       <c r="G265">
         <v>7440000000000</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265">
+        <v>126</v>
+      </c>
+      <c r="I265">
+        <f>I260+VLOOKUP(QUOTIENT(A265-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.4600000000000022</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -6838,8 +8671,15 @@
       <c r="G266">
         <v>7470000000000</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266">
+        <v>126</v>
+      </c>
+      <c r="I266">
+        <f>I261+VLOOKUP(QUOTIENT(A266-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.4600000000000022</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -6862,8 +8702,15 @@
       <c r="G267">
         <v>7500000000000</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267">
+        <v>126</v>
+      </c>
+      <c r="I267">
+        <f>I262+VLOOKUP(QUOTIENT(A267-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.4600000000000022</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -6886,13 +8733,20 @@
       <c r="G268">
         <v>7530000000000</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268">
+        <v>126</v>
+      </c>
+      <c r="I268">
+        <f>I263+VLOOKUP(QUOTIENT(A268-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.5800000000000023</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
       <c r="B269">
-        <f t="shared" ref="B269:B277" si="7">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B269:B332" si="7">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C269">
@@ -6910,8 +8764,15 @@
       <c r="G269">
         <v>7560000000000</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269">
+        <v>126</v>
+      </c>
+      <c r="I269">
+        <f>I264+VLOOKUP(QUOTIENT(A269-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.5800000000000023</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -6934,8 +8795,15 @@
       <c r="G270">
         <v>7590000000000</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270">
+        <v>126</v>
+      </c>
+      <c r="I270">
+        <f>I265+VLOOKUP(QUOTIENT(A270-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.5800000000000023</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -6958,8 +8826,15 @@
       <c r="G271">
         <v>7620000000000</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271">
+        <v>126</v>
+      </c>
+      <c r="I271">
+        <f>I266+VLOOKUP(QUOTIENT(A271-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.5800000000000023</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -6982,8 +8857,15 @@
       <c r="G272">
         <v>7650000000000</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272">
+        <v>126</v>
+      </c>
+      <c r="I272">
+        <f>I267+VLOOKUP(QUOTIENT(A272-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.5800000000000023</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7006,8 +8888,15 @@
       <c r="G273">
         <v>7680000000000</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273">
+        <v>126</v>
+      </c>
+      <c r="I273">
+        <f>I268+VLOOKUP(QUOTIENT(A273-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.7000000000000024</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7030,8 +8919,15 @@
       <c r="G274">
         <v>7710000000000</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274">
+        <v>126</v>
+      </c>
+      <c r="I274">
+        <f>I269+VLOOKUP(QUOTIENT(A274-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.7000000000000024</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7054,8 +8950,15 @@
       <c r="G275">
         <v>7740000000000</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275">
+        <v>126</v>
+      </c>
+      <c r="I275">
+        <f>I270+VLOOKUP(QUOTIENT(A275-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.7000000000000024</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7078,8 +8981,15 @@
       <c r="G276">
         <v>7770000000000</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276">
+        <v>126</v>
+      </c>
+      <c r="I276">
+        <f>I271+VLOOKUP(QUOTIENT(A276-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.7000000000000024</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7101,6 +9011,230 @@
       </c>
       <c r="G277">
         <v>7800000000000</v>
+      </c>
+      <c r="H277">
+        <v>126</v>
+      </c>
+      <c r="I277">
+        <f>I272+VLOOKUP(QUOTIENT(A277-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.7000000000000024</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>57200</v>
+      </c>
+      <c r="F278">
+        <v>11</v>
+      </c>
+      <c r="G278">
+        <v>7830000000000</v>
+      </c>
+      <c r="H278">
+        <v>126</v>
+      </c>
+      <c r="I278">
+        <f>I273+VLOOKUP(QUOTIENT(A278-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.8200000000000025</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <v>57400</v>
+      </c>
+      <c r="F279">
+        <v>11</v>
+      </c>
+      <c r="G279">
+        <v>7860000000000</v>
+      </c>
+      <c r="H279">
+        <v>126</v>
+      </c>
+      <c r="I279">
+        <f>I274+VLOOKUP(QUOTIENT(A279-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.8200000000000025</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>57600</v>
+      </c>
+      <c r="F280">
+        <v>11</v>
+      </c>
+      <c r="G280">
+        <v>7890000000000</v>
+      </c>
+      <c r="H280">
+        <v>126</v>
+      </c>
+      <c r="I280">
+        <f>I275+VLOOKUP(QUOTIENT(A280-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.8200000000000025</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>57800</v>
+      </c>
+      <c r="F281">
+        <v>11</v>
+      </c>
+      <c r="G281">
+        <v>7920000000000</v>
+      </c>
+      <c r="H281">
+        <v>126</v>
+      </c>
+      <c r="I281">
+        <f>I276+VLOOKUP(QUOTIENT(A281-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.8200000000000025</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>58000</v>
+      </c>
+      <c r="F282">
+        <v>11</v>
+      </c>
+      <c r="G282">
+        <v>7950000000000</v>
+      </c>
+      <c r="H282">
+        <v>126</v>
+      </c>
+      <c r="I282">
+        <f>I277+VLOOKUP(QUOTIENT(A282-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.8200000000000025</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <v>58200</v>
+      </c>
+      <c r="F283">
+        <v>11</v>
+      </c>
+      <c r="G283">
+        <v>7980000000000</v>
+      </c>
+      <c r="H283">
+        <v>126</v>
+      </c>
+      <c r="I283">
+        <f>I278+VLOOKUP(QUOTIENT(A283-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.9400000000000026</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>58400</v>
+      </c>
+      <c r="F284">
+        <v>11</v>
+      </c>
+      <c r="G284">
+        <v>8010000000000</v>
+      </c>
+      <c r="H284">
+        <v>126</v>
+      </c>
+      <c r="I284">
+        <f>I279+VLOOKUP(QUOTIENT(A284-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.9400000000000026</v>
       </c>
     </row>
   </sheetData>
@@ -7108,4 +9242,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FE6EB4-E4F3-4BB3-9A00-F0330639B87C}">
+  <dimension ref="B5:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>C7+50</f>
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f>D7+50</f>
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D12" si="0">C8+50</f>
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="E9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="E11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="1">C12+50</f>
+        <v>350</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="2">C13+50</f>
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>449</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2FF14-819C-4326-9234-5143B3F5183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A85B6A-CCE3-407B-80A5-8838A96C4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -465,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I284"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D278" sqref="D278"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8746,7 +8746,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <f t="shared" ref="B269:B332" si="7">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B269:B289" si="7">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C269">
@@ -9235,6 +9235,161 @@
       <c r="I284">
         <f>I279+VLOOKUP(QUOTIENT(A284-1,50),Balance!B:E,4,FALSE)</f>
         <v>3.9400000000000026</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>2</v>
+      </c>
+      <c r="E285">
+        <v>58600</v>
+      </c>
+      <c r="F285">
+        <v>11</v>
+      </c>
+      <c r="G285">
+        <v>8040000000000</v>
+      </c>
+      <c r="H285">
+        <v>126</v>
+      </c>
+      <c r="I285">
+        <f>I280+VLOOKUP(QUOTIENT(A285-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.9400000000000026</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>58800</v>
+      </c>
+      <c r="F286">
+        <v>11</v>
+      </c>
+      <c r="G286">
+        <v>8070000000000</v>
+      </c>
+      <c r="H286">
+        <v>126</v>
+      </c>
+      <c r="I286">
+        <f>I281+VLOOKUP(QUOTIENT(A286-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.9400000000000026</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>2</v>
+      </c>
+      <c r="E287">
+        <v>59000</v>
+      </c>
+      <c r="F287">
+        <v>11</v>
+      </c>
+      <c r="G287">
+        <v>8100000000000</v>
+      </c>
+      <c r="H287">
+        <v>126</v>
+      </c>
+      <c r="I287">
+        <f>I282+VLOOKUP(QUOTIENT(A287-1,50),Balance!B:E,4,FALSE)</f>
+        <v>3.9400000000000026</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>59200</v>
+      </c>
+      <c r="F288">
+        <v>11</v>
+      </c>
+      <c r="G288">
+        <v>8130000000000</v>
+      </c>
+      <c r="H288">
+        <v>126</v>
+      </c>
+      <c r="I288">
+        <f>I283+VLOOKUP(QUOTIENT(A288-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.0600000000000023</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>59400</v>
+      </c>
+      <c r="F289">
+        <v>11</v>
+      </c>
+      <c r="G289">
+        <v>8160000000000</v>
+      </c>
+      <c r="H289">
+        <v>126</v>
+      </c>
+      <c r="I289">
+        <f>I284+VLOOKUP(QUOTIENT(A289-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.0600000000000023</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A85B6A-CCE3-407B-80A5-8838A96C4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25962F72-FEED-43C9-8C6D-811A565C4C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -465,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
+      <selection pane="bottomLeft" activeCell="G285" sqref="G285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8746,7 +8746,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <f t="shared" ref="B269:B289" si="7">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B269:B295" si="7">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C269">
@@ -9390,6 +9390,192 @@
       <c r="I289">
         <f>I284+VLOOKUP(QUOTIENT(A289-1,50),Balance!B:E,4,FALSE)</f>
         <v>4.0600000000000023</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>59600</v>
+      </c>
+      <c r="F290">
+        <v>11</v>
+      </c>
+      <c r="G290">
+        <v>8190000000000</v>
+      </c>
+      <c r="H290">
+        <v>126</v>
+      </c>
+      <c r="I290">
+        <f>I285+VLOOKUP(QUOTIENT(A290-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.0600000000000023</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>59800</v>
+      </c>
+      <c r="F291">
+        <v>11</v>
+      </c>
+      <c r="G291">
+        <v>8220000000000</v>
+      </c>
+      <c r="H291">
+        <v>126</v>
+      </c>
+      <c r="I291">
+        <f>I286+VLOOKUP(QUOTIENT(A291-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.0600000000000023</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <v>60000</v>
+      </c>
+      <c r="F292">
+        <v>11</v>
+      </c>
+      <c r="G292">
+        <v>8250000000000</v>
+      </c>
+      <c r="H292">
+        <v>126</v>
+      </c>
+      <c r="I292">
+        <f>I287+VLOOKUP(QUOTIENT(A292-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.0600000000000023</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>2</v>
+      </c>
+      <c r="E293">
+        <v>60200</v>
+      </c>
+      <c r="F293">
+        <v>11</v>
+      </c>
+      <c r="G293">
+        <v>8280000000000</v>
+      </c>
+      <c r="H293">
+        <v>126</v>
+      </c>
+      <c r="I293">
+        <f>I288+VLOOKUP(QUOTIENT(A293-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.1800000000000024</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <v>60400</v>
+      </c>
+      <c r="F294">
+        <v>11</v>
+      </c>
+      <c r="G294">
+        <v>8310000000000</v>
+      </c>
+      <c r="H294">
+        <v>126</v>
+      </c>
+      <c r="I294">
+        <f>I289+VLOOKUP(QUOTIENT(A294-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.1800000000000024</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <v>60600</v>
+      </c>
+      <c r="F295">
+        <v>11</v>
+      </c>
+      <c r="G295">
+        <v>8340000000000</v>
+      </c>
+      <c r="H295">
+        <v>126</v>
+      </c>
+      <c r="I295">
+        <f>I290+VLOOKUP(QUOTIENT(A295-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.1800000000000024</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25962F72-FEED-43C9-8C6D-811A565C4C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F3D57-59BF-40BC-997F-9A977365EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -465,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G285" sqref="G285"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8746,7 +8746,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <f t="shared" ref="B269:B295" si="7">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B269:B301" si="7">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C269">
@@ -9576,6 +9576,192 @@
       <c r="I295">
         <f>I290+VLOOKUP(QUOTIENT(A295-1,50),Balance!B:E,4,FALSE)</f>
         <v>4.1800000000000024</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>60800</v>
+      </c>
+      <c r="F296">
+        <v>11</v>
+      </c>
+      <c r="G296">
+        <v>8370000000000</v>
+      </c>
+      <c r="H296">
+        <v>126</v>
+      </c>
+      <c r="I296">
+        <f>I291+VLOOKUP(QUOTIENT(A296-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.1800000000000024</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+      <c r="E297">
+        <v>61000</v>
+      </c>
+      <c r="F297">
+        <v>11</v>
+      </c>
+      <c r="G297">
+        <v>8400000000000</v>
+      </c>
+      <c r="H297">
+        <v>126</v>
+      </c>
+      <c r="I297">
+        <f>I292+VLOOKUP(QUOTIENT(A297-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.1800000000000024</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+      <c r="E298">
+        <v>61200</v>
+      </c>
+      <c r="F298">
+        <v>11</v>
+      </c>
+      <c r="G298">
+        <v>8430000000000</v>
+      </c>
+      <c r="H298">
+        <v>126</v>
+      </c>
+      <c r="I298">
+        <f>I293+VLOOKUP(QUOTIENT(A298-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.3000000000000025</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+      <c r="E299">
+        <v>61400</v>
+      </c>
+      <c r="F299">
+        <v>11</v>
+      </c>
+      <c r="G299">
+        <v>8460000000000</v>
+      </c>
+      <c r="H299">
+        <v>126</v>
+      </c>
+      <c r="I299">
+        <f>I294+VLOOKUP(QUOTIENT(A299-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.3000000000000025</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
+      </c>
+      <c r="E300">
+        <v>61600</v>
+      </c>
+      <c r="F300">
+        <v>11</v>
+      </c>
+      <c r="G300">
+        <v>8490000000000</v>
+      </c>
+      <c r="H300">
+        <v>126</v>
+      </c>
+      <c r="I300">
+        <f>I295+VLOOKUP(QUOTIENT(A300-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.3000000000000025</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+      <c r="E301">
+        <v>61800</v>
+      </c>
+      <c r="F301">
+        <v>11</v>
+      </c>
+      <c r="G301">
+        <v>8520000000000</v>
+      </c>
+      <c r="H301">
+        <v>126</v>
+      </c>
+      <c r="I301">
+        <f>I296+VLOOKUP(QUOTIENT(A301-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.3000000000000025</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F3D57-59BF-40BC-997F-9A977365EF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B83F1E-F78E-44B1-89CB-59A1B1130648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -465,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B296" sqref="B296"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8746,7 +8746,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <f t="shared" ref="B269:B301" si="7">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B269:B307" si="7">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C269">
@@ -9762,6 +9762,192 @@
       <c r="I301">
         <f>I296+VLOOKUP(QUOTIENT(A301-1,50),Balance!B:E,4,FALSE)</f>
         <v>4.3000000000000025</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+      <c r="E302">
+        <v>62000</v>
+      </c>
+      <c r="F302">
+        <v>11</v>
+      </c>
+      <c r="G302">
+        <v>8550000000000</v>
+      </c>
+      <c r="H302">
+        <v>126</v>
+      </c>
+      <c r="I302">
+        <f>I297+VLOOKUP(QUOTIENT(A302-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.3000000000000025</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>62200</v>
+      </c>
+      <c r="F303">
+        <v>11</v>
+      </c>
+      <c r="G303">
+        <v>8580000000000</v>
+      </c>
+      <c r="H303">
+        <v>126</v>
+      </c>
+      <c r="I303">
+        <f>I298+VLOOKUP(QUOTIENT(A303-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.4500000000000028</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>62400</v>
+      </c>
+      <c r="F304">
+        <v>11</v>
+      </c>
+      <c r="G304">
+        <v>8610000000000</v>
+      </c>
+      <c r="H304">
+        <v>126</v>
+      </c>
+      <c r="I304">
+        <f>I299+VLOOKUP(QUOTIENT(A304-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.4500000000000028</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>62600</v>
+      </c>
+      <c r="F305">
+        <v>11</v>
+      </c>
+      <c r="G305">
+        <v>8640000000000</v>
+      </c>
+      <c r="H305">
+        <v>126</v>
+      </c>
+      <c r="I305">
+        <f>I300+VLOOKUP(QUOTIENT(A305-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.4500000000000028</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+      <c r="E306">
+        <v>62800</v>
+      </c>
+      <c r="F306">
+        <v>11</v>
+      </c>
+      <c r="G306">
+        <v>8670000000000</v>
+      </c>
+      <c r="H306">
+        <v>126</v>
+      </c>
+      <c r="I306">
+        <f>I301+VLOOKUP(QUOTIENT(A306-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.4500000000000028</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <v>63000</v>
+      </c>
+      <c r="F307">
+        <v>11</v>
+      </c>
+      <c r="G307">
+        <v>8700000000000</v>
+      </c>
+      <c r="H307">
+        <v>126</v>
+      </c>
+      <c r="I307">
+        <f>I302+VLOOKUP(QUOTIENT(A307-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.4500000000000028</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B83F1E-F78E-44B1-89CB-59A1B1130648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2943CD-326B-4C0A-882B-69CB8789E87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -465,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A300" sqref="A300"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8746,7 +8746,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <f t="shared" ref="B269:B307" si="7">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B269:B326" si="7">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C269">
@@ -9948,6 +9948,595 @@
       <c r="I307">
         <f>I302+VLOOKUP(QUOTIENT(A307-1,50),Balance!B:E,4,FALSE)</f>
         <v>4.4500000000000028</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+      <c r="E308">
+        <v>63200</v>
+      </c>
+      <c r="F308">
+        <v>11</v>
+      </c>
+      <c r="G308">
+        <v>8730000000000</v>
+      </c>
+      <c r="H308">
+        <v>126</v>
+      </c>
+      <c r="I308">
+        <f>I303+VLOOKUP(QUOTIENT(A308-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.6000000000000032</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+      <c r="E309">
+        <v>63400</v>
+      </c>
+      <c r="F309">
+        <v>11</v>
+      </c>
+      <c r="G309">
+        <v>8760000000000</v>
+      </c>
+      <c r="H309">
+        <v>126</v>
+      </c>
+      <c r="I309">
+        <f>I304+VLOOKUP(QUOTIENT(A309-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.6000000000000032</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310">
+        <v>63600</v>
+      </c>
+      <c r="F310">
+        <v>11</v>
+      </c>
+      <c r="G310">
+        <v>8790000000000</v>
+      </c>
+      <c r="H310">
+        <v>126</v>
+      </c>
+      <c r="I310">
+        <f>I305+VLOOKUP(QUOTIENT(A310-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.6000000000000032</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>63800</v>
+      </c>
+      <c r="F311">
+        <v>11</v>
+      </c>
+      <c r="G311">
+        <v>8820000000000</v>
+      </c>
+      <c r="H311">
+        <v>126</v>
+      </c>
+      <c r="I311">
+        <f>I306+VLOOKUP(QUOTIENT(A311-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.6000000000000032</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>64000</v>
+      </c>
+      <c r="F312">
+        <v>11</v>
+      </c>
+      <c r="G312">
+        <v>8850000000000</v>
+      </c>
+      <c r="H312">
+        <v>126</v>
+      </c>
+      <c r="I312">
+        <f>I307+VLOOKUP(QUOTIENT(A312-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.6000000000000032</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>64200</v>
+      </c>
+      <c r="F313">
+        <v>11</v>
+      </c>
+      <c r="G313">
+        <v>8880000000000</v>
+      </c>
+      <c r="H313">
+        <v>126</v>
+      </c>
+      <c r="I313">
+        <f>I308+VLOOKUP(QUOTIENT(A313-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.7500000000000036</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>64400</v>
+      </c>
+      <c r="F314">
+        <v>11</v>
+      </c>
+      <c r="G314">
+        <v>8910000000000</v>
+      </c>
+      <c r="H314">
+        <v>126</v>
+      </c>
+      <c r="I314">
+        <f>I309+VLOOKUP(QUOTIENT(A314-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.7500000000000036</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>64600</v>
+      </c>
+      <c r="F315">
+        <v>11</v>
+      </c>
+      <c r="G315">
+        <v>8940000000000</v>
+      </c>
+      <c r="H315">
+        <v>126</v>
+      </c>
+      <c r="I315">
+        <f>I310+VLOOKUP(QUOTIENT(A315-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.7500000000000036</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>64800</v>
+      </c>
+      <c r="F316">
+        <v>11</v>
+      </c>
+      <c r="G316">
+        <v>8970000000000</v>
+      </c>
+      <c r="H316">
+        <v>126</v>
+      </c>
+      <c r="I316">
+        <f>I311+VLOOKUP(QUOTIENT(A316-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.7500000000000036</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>65000</v>
+      </c>
+      <c r="F317">
+        <v>11</v>
+      </c>
+      <c r="G317">
+        <v>9000000000000</v>
+      </c>
+      <c r="H317">
+        <v>126</v>
+      </c>
+      <c r="I317">
+        <f>I312+VLOOKUP(QUOTIENT(A317-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.7500000000000036</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318">
+        <v>65200</v>
+      </c>
+      <c r="F318">
+        <v>11</v>
+      </c>
+      <c r="G318">
+        <v>9030000000000</v>
+      </c>
+      <c r="H318">
+        <v>126</v>
+      </c>
+      <c r="I318">
+        <f>I313+VLOOKUP(QUOTIENT(A318-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.9000000000000039</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+      <c r="E319">
+        <v>65400</v>
+      </c>
+      <c r="F319">
+        <v>11</v>
+      </c>
+      <c r="G319">
+        <v>9060000000000</v>
+      </c>
+      <c r="H319">
+        <v>126</v>
+      </c>
+      <c r="I319">
+        <f>I314+VLOOKUP(QUOTIENT(A319-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.9000000000000039</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+      <c r="E320">
+        <v>65600</v>
+      </c>
+      <c r="F320">
+        <v>11</v>
+      </c>
+      <c r="G320">
+        <v>9090000000000</v>
+      </c>
+      <c r="H320">
+        <v>126</v>
+      </c>
+      <c r="I320">
+        <f>I315+VLOOKUP(QUOTIENT(A320-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.9000000000000039</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+      <c r="E321">
+        <v>65800</v>
+      </c>
+      <c r="F321">
+        <v>11</v>
+      </c>
+      <c r="G321">
+        <v>9120000000000</v>
+      </c>
+      <c r="H321">
+        <v>126</v>
+      </c>
+      <c r="I321">
+        <f>I316+VLOOKUP(QUOTIENT(A321-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.9000000000000039</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+      <c r="E322">
+        <v>66000</v>
+      </c>
+      <c r="F322">
+        <v>11</v>
+      </c>
+      <c r="G322">
+        <v>9150000000000</v>
+      </c>
+      <c r="H322">
+        <v>126</v>
+      </c>
+      <c r="I322">
+        <f>I317+VLOOKUP(QUOTIENT(A322-1,50),Balance!B:E,4,FALSE)</f>
+        <v>4.9000000000000039</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323">
+        <v>66200</v>
+      </c>
+      <c r="F323">
+        <v>11</v>
+      </c>
+      <c r="G323">
+        <v>9180000000000</v>
+      </c>
+      <c r="H323">
+        <v>126</v>
+      </c>
+      <c r="I323">
+        <f>I318+VLOOKUP(QUOTIENT(A323-1,50),Balance!B:E,4,FALSE)</f>
+        <v>5.0500000000000043</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324">
+        <v>66400</v>
+      </c>
+      <c r="F324">
+        <v>11</v>
+      </c>
+      <c r="G324">
+        <v>9210000000000</v>
+      </c>
+      <c r="H324">
+        <v>126</v>
+      </c>
+      <c r="I324">
+        <f>I319+VLOOKUP(QUOTIENT(A324-1,50),Balance!B:E,4,FALSE)</f>
+        <v>5.0500000000000043</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>2</v>
+      </c>
+      <c r="E325">
+        <v>66600</v>
+      </c>
+      <c r="F325">
+        <v>11</v>
+      </c>
+      <c r="G325">
+        <v>9240000000000</v>
+      </c>
+      <c r="H325">
+        <v>126</v>
+      </c>
+      <c r="I325">
+        <f>I320+VLOOKUP(QUOTIENT(A325-1,50),Balance!B:E,4,FALSE)</f>
+        <v>5.0500000000000043</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="7"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+      <c r="E326">
+        <v>66800</v>
+      </c>
+      <c r="F326">
+        <v>11</v>
+      </c>
+      <c r="G326">
+        <v>9270000000000</v>
+      </c>
+      <c r="H326">
+        <v>126</v>
+      </c>
+      <c r="I326">
+        <f>I321+VLOOKUP(QUOTIENT(A326-1,50),Balance!B:E,4,FALSE)</f>
+        <v>5.0500000000000043</v>
       </c>
     </row>
   </sheetData>
